--- a/results/sterilization_APOS/data_uniquie_sterilization_APOS_recipe.xlsx
+++ b/results/sterilization_APOS/data_uniquie_sterilization_APOS_recipe.xlsx
@@ -507,1562 +507,1562 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>-0.0001933859780020631</v>
+        <v>-0.0001933859959586804</v>
       </c>
       <c r="B2">
-        <v>-3.020426937850129</v>
+        <v>-3.02042693955436</v>
       </c>
       <c r="C2">
-        <v>-0.1585863075869944</v>
+        <v>-0.1585863087301743</v>
       </c>
       <c r="D2">
-        <v>-0.2296331724767524</v>
+        <v>-0.2296331739422318</v>
       </c>
       <c r="E2">
-        <v>-8.83329532450589</v>
+        <v>-8.833295426634816</v>
       </c>
       <c r="F2">
-        <v>-0.005003261573208666</v>
+        <v>-0.005003261971909883</v>
       </c>
       <c r="G2">
-        <v>-2.655620862601438E-06</v>
+        <v>-2.655622501411887E-06</v>
       </c>
       <c r="H2">
-        <v>-4.732000112239149E-06</v>
+        <v>-4.732000202460807E-06</v>
       </c>
       <c r="I2">
-        <v>-0.009831376525261861</v>
+        <v>-0.00983137704398296</v>
       </c>
       <c r="J2">
-        <v>-1.917643168895698</v>
+        <v>-1.917643185857459</v>
       </c>
       <c r="K2">
-        <v>-0.0004283464587189862</v>
+        <v>-0.000428346491957658</v>
       </c>
       <c r="L2">
-        <v>-0.0003125666414811664</v>
+        <v>-0.0003125670760587789</v>
       </c>
       <c r="M2">
-        <v>-0.000625133644298645</v>
+        <v>-0.0006251337695050113</v>
       </c>
       <c r="N2">
-        <v>-2.204923855094807E-07</v>
+        <v>-2.204923860497489E-07</v>
       </c>
       <c r="O2">
-        <v>-6.373948763398558E-05</v>
+        <v>-6.373949402669475E-05</v>
       </c>
       <c r="P2">
-        <v>-0.0004646641331013507</v>
+        <v>-0.0004646641393001557</v>
       </c>
       <c r="Q2">
-        <v>-0.0004671485221118897</v>
+        <v>-0.0004671485286057117</v>
       </c>
       <c r="R2">
-        <v>-0.001527600883712552</v>
+        <v>-0.0015276008965654</v>
       </c>
       <c r="S2">
-        <v>-8.7982833635448E-09</v>
+        <v>-8.798283380027365E-09</v>
       </c>
       <c r="T2">
-        <v>-3.317026239722042E-06</v>
+        <v>-3.31702625094275E-06</v>
       </c>
       <c r="U2">
-        <v>-0.001836593782534041</v>
+        <v>-0.00183659392258653</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>-0.0001646121112132043</v>
+        <v>-0.0001646121269421261</v>
       </c>
       <c r="B3">
-        <v>-2.551055177160587</v>
+        <v>-2.551055178660724</v>
       </c>
       <c r="C3">
-        <v>-0.1339373196323867</v>
+        <v>-0.1339373206458538</v>
       </c>
       <c r="D3">
-        <v>-0.193939496038246</v>
+        <v>-0.1939394973378071</v>
       </c>
       <c r="E3">
-        <v>-7.460966608549327</v>
+        <v>-7.460966699129567</v>
       </c>
       <c r="F3">
-        <v>-0.004357870796008586</v>
+        <v>-0.004357871142174629</v>
       </c>
       <c r="G3">
-        <v>-2.414198788441675E-06</v>
+        <v>-2.414200244441777E-06</v>
       </c>
       <c r="H3">
-        <v>-4.015526026005036E-06</v>
+        <v>-4.015526104233521E-06</v>
       </c>
       <c r="I3">
-        <v>-0.008600983661111596</v>
+        <v>-0.008600984113094959</v>
       </c>
       <c r="J3">
-        <v>-1.619602074026564</v>
+        <v>-1.619602089097953</v>
       </c>
       <c r="K3">
-        <v>-0.0003773714458909558</v>
+        <v>-0.0003773714776004107</v>
       </c>
       <c r="L3">
-        <v>-0.0002772549946908996</v>
+        <v>-0.0002772552936281981</v>
       </c>
       <c r="M3">
-        <v>-0.0005834806162052969</v>
+        <v>-0.0005834807262770857</v>
       </c>
       <c r="N3">
-        <v>-1.862772734719084E-07</v>
+        <v>-1.862772739542715E-07</v>
       </c>
       <c r="O3">
-        <v>-5.554318442999898E-05</v>
+        <v>-5.55431900242438E-05</v>
       </c>
       <c r="P3">
-        <v>-0.0003938720911932768</v>
+        <v>-0.0003938720966016996</v>
       </c>
       <c r="Q3">
-        <v>-0.000396123457892261</v>
+        <v>-0.0003961234635489988</v>
       </c>
       <c r="R3">
-        <v>-0.001449330873976141</v>
+        <v>-0.001449330885315389</v>
       </c>
       <c r="S3">
-        <v>-7.431743767157732E-09</v>
+        <v>-7.43174378092314E-09</v>
       </c>
       <c r="T3">
-        <v>-2.803970311417928E-06</v>
+        <v>-2.803970321291021E-06</v>
       </c>
       <c r="U3">
-        <v>-0.001600391806456298</v>
+        <v>-0.001600391927651236</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>-0.00649074866717923</v>
+        <v>-0.006490748662146639</v>
       </c>
       <c r="B4">
-        <v>-0.5144198936981689</v>
+        <v>-0.5144198924183964</v>
       </c>
       <c r="C4">
-        <v>-0.5126269718184511</v>
+        <v>-0.5126269716953604</v>
       </c>
       <c r="D4">
-        <v>-0.6554899407672554</v>
+        <v>-0.6554899406050764</v>
       </c>
       <c r="E4">
-        <v>-44.95788835801585</v>
+        <v>-44.95788834875821</v>
       </c>
       <c r="F4">
-        <v>-0.1431501703082846</v>
+        <v>-0.1431501700159915</v>
       </c>
       <c r="G4">
-        <v>-0.0007222434634683989</v>
+        <v>-0.0007222434630796929</v>
       </c>
       <c r="H4">
-        <v>-2.227253950912485E-05</v>
+        <v>-2.227253944278255E-05</v>
       </c>
       <c r="I4">
-        <v>-0.07328943120489394</v>
+        <v>-0.07328943051904474</v>
       </c>
       <c r="J4">
-        <v>-7.492091908942502</v>
+        <v>-7.492091906969931</v>
       </c>
       <c r="K4">
-        <v>-0.05105694589367765</v>
+        <v>-0.05105694580583398</v>
       </c>
       <c r="L4">
-        <v>-0.03497458477498962</v>
+        <v>-0.03497458438351133</v>
       </c>
       <c r="M4">
-        <v>-0.02634864215136377</v>
+        <v>-0.02634864205161977</v>
       </c>
       <c r="N4">
-        <v>-2.485598678018269E-07</v>
+        <v>-2.485598673841569E-07</v>
       </c>
       <c r="O4">
-        <v>-0.002256762931095066</v>
+        <v>-0.002256762928562099</v>
       </c>
       <c r="P4">
-        <v>-0.001651215667578795</v>
+        <v>-0.001651215662086761</v>
       </c>
       <c r="Q4">
-        <v>-0.001720588484853967</v>
+        <v>-0.001720588479137832</v>
       </c>
       <c r="R4">
-        <v>-0.00463916036146236</v>
+        <v>-0.004639160352723729</v>
       </c>
       <c r="S4">
-        <v>-4.769793987822935E-09</v>
+        <v>-4.769793978491019E-09</v>
       </c>
       <c r="T4">
-        <v>-3.858391525544947E-06</v>
+        <v>-3.858391520012709E-06</v>
       </c>
       <c r="U4">
-        <v>-0.04691174425353534</v>
+        <v>-0.04691174414281411</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.008734348623335815</v>
+        <v>0.008734348524915935</v>
       </c>
       <c r="B5">
-        <v>2.437374892810364</v>
+        <v>2.437374890099594</v>
       </c>
       <c r="C5">
-        <v>0.23465235418231</v>
+        <v>0.2346523471806181</v>
       </c>
       <c r="D5">
-        <v>0.3035103298315278</v>
+        <v>0.3035103208061385</v>
       </c>
       <c r="E5">
-        <v>9.60517830251078</v>
+        <v>9.605177652630223</v>
       </c>
       <c r="F5">
-        <v>0.662623561572486</v>
+        <v>0.6626235613035837</v>
       </c>
       <c r="G5">
-        <v>0.00170061716899533</v>
+        <v>0.00170061716025603</v>
       </c>
       <c r="H5">
-        <v>0.0003605778244358693</v>
+        <v>0.0003605778242390076</v>
       </c>
       <c r="I5">
-        <v>0.2072702124022188</v>
+        <v>0.2072702123676973</v>
       </c>
       <c r="J5">
-        <v>4.470497599222576</v>
+        <v>4.470497486652739</v>
       </c>
       <c r="K5">
-        <v>0.8930473980341069</v>
+        <v>0.8930473979046665</v>
       </c>
       <c r="L5">
-        <v>0.1517815728674811</v>
+        <v>0.1517815692619881</v>
       </c>
       <c r="M5">
-        <v>0.02672110776171682</v>
+        <v>0.02672110748379655</v>
       </c>
       <c r="N5">
-        <v>1.1976437482459E-06</v>
+        <v>1.197643746661888E-06</v>
       </c>
       <c r="O5">
-        <v>0.003430798838972964</v>
+        <v>0.003430798808369016</v>
       </c>
       <c r="P5">
-        <v>0.004841481979675116</v>
+        <v>0.004841481951422691</v>
       </c>
       <c r="Q5">
-        <v>0.005099574578490716</v>
+        <v>0.005099574551369348</v>
       </c>
       <c r="R5">
-        <v>0.08932459041104451</v>
+        <v>0.0893245903847989</v>
       </c>
       <c r="S5">
-        <v>1.21253789613896E-08</v>
+        <v>1.212537887837417E-08</v>
       </c>
       <c r="T5">
-        <v>6.335536689547871E-06</v>
+        <v>6.33553664194581E-06</v>
       </c>
       <c r="U5">
-        <v>0.1691637575798403</v>
+        <v>0.1691637574752927</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.06467968716238505</v>
+        <v>0.06467968665247122</v>
       </c>
       <c r="B6">
-        <v>14.37138855563194</v>
+        <v>14.37138850265493</v>
       </c>
       <c r="C6">
-        <v>0.5998096042004684</v>
+        <v>0.5998095748733162</v>
       </c>
       <c r="D6">
-        <v>0.7907094425151968</v>
+        <v>0.7907094049155603</v>
       </c>
       <c r="E6">
-        <v>16.21590234912581</v>
+        <v>16.21589960960593</v>
       </c>
       <c r="F6">
-        <v>3.035801244465527</v>
+        <v>3.035801233505238</v>
       </c>
       <c r="G6">
-        <v>0.00449274778409771</v>
+        <v>0.004492747736939755</v>
       </c>
       <c r="H6">
-        <v>0.000362829899803201</v>
+        <v>0.0003628298970706934</v>
       </c>
       <c r="I6">
-        <v>2.872742448185676</v>
+        <v>2.872742428481923</v>
       </c>
       <c r="J6">
-        <v>12.75296364773787</v>
+        <v>12.75296317986616</v>
       </c>
       <c r="K6">
-        <v>0.2263498361798476</v>
+        <v>0.2263498315913824</v>
       </c>
       <c r="L6">
-        <v>0.1654278318740016</v>
+        <v>0.1654278291822438</v>
       </c>
       <c r="M6">
-        <v>0.2244778116398753</v>
+        <v>0.2244778072178356</v>
       </c>
       <c r="N6">
-        <v>2.977331928379139E-06</v>
+        <v>2.977331908813821E-06</v>
       </c>
       <c r="O6">
-        <v>0.02853249603924957</v>
+        <v>0.02853249584606332</v>
       </c>
       <c r="P6">
-        <v>0.03775583427259773</v>
+        <v>0.03775583408404545</v>
       </c>
       <c r="Q6">
-        <v>0.03834201732434144</v>
+        <v>0.03834201713219303</v>
       </c>
       <c r="R6">
-        <v>0.0841145495799317</v>
+        <v>0.08411454908595883</v>
       </c>
       <c r="S6">
-        <v>6.407110267694001E-08</v>
+        <v>6.407110228471589E-08</v>
       </c>
       <c r="T6">
-        <v>4.393042093489563E-05</v>
+        <v>4.393042059096571E-05</v>
       </c>
       <c r="U6">
-        <v>0.5987484424773102</v>
+        <v>0.5987484387283568</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.01458914266588973</v>
+        <v>0.009065538583921801</v>
       </c>
       <c r="B7">
-        <v>4.918847158038039</v>
+        <v>2.639956937932868</v>
       </c>
       <c r="C7">
-        <v>0.6913131609294013</v>
+        <v>0.5500091835178633</v>
       </c>
       <c r="D7">
-        <v>0.878306362760423</v>
+        <v>0.6940489701592382</v>
       </c>
       <c r="E7">
-        <v>34.5201187783558</v>
+        <v>28.16842519682295</v>
       </c>
       <c r="F7">
-        <v>1.276411212409313</v>
+        <v>0.6763878669033745</v>
       </c>
       <c r="G7">
-        <v>0.004500535659394927</v>
+        <v>0.002606655841983782</v>
       </c>
       <c r="H7">
-        <v>0.001710875262273271</v>
+        <v>0.001546859013164102</v>
       </c>
       <c r="I7">
-        <v>0.4414961715820448</v>
+        <v>0.2526981129263983</v>
       </c>
       <c r="J7">
-        <v>11.23227719405528</v>
+        <v>7.862763730710505</v>
       </c>
       <c r="K7">
-        <v>1.408312299916906</v>
+        <v>0.7180506445116336</v>
       </c>
       <c r="L7">
-        <v>1.018001374690037</v>
+        <v>0.5155783187604684</v>
       </c>
       <c r="M7">
-        <v>0.05528415980923745</v>
+        <v>0.03982231505471349</v>
       </c>
       <c r="N7">
-        <v>5.734850564053876E-06</v>
+        <v>3.13456156274911E-06</v>
       </c>
       <c r="O7">
-        <v>0.005031833416492691</v>
+        <v>0.003151964401825704</v>
       </c>
       <c r="P7">
-        <v>0.01022186690453445</v>
+        <v>0.005630124856540828</v>
       </c>
       <c r="Q7">
-        <v>0.01046806229448984</v>
+        <v>0.005772680510956492</v>
       </c>
       <c r="R7">
-        <v>0.0901674546207826</v>
+        <v>0.04896439749901695</v>
       </c>
       <c r="S7">
-        <v>3.122774360326121E-08</v>
+        <v>1.715536812503243E-08</v>
       </c>
       <c r="T7">
-        <v>1.197743671850874E-05</v>
+        <v>7.183405319226565E-06</v>
       </c>
       <c r="U7">
-        <v>0.2510923436187547</v>
+        <v>0.1390610331410582</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>-0.06467968716238505</v>
+        <v>-0.02902244513307421</v>
       </c>
       <c r="B8">
-        <v>-14.37138855563194</v>
+        <v>-6.228141669826764</v>
       </c>
       <c r="C8">
-        <v>-0.5998096042004684</v>
+        <v>-0.6640835262830334</v>
       </c>
       <c r="D8">
-        <v>-0.7907094425151968</v>
+        <v>-0.8329494927658754</v>
       </c>
       <c r="E8">
-        <v>-16.21590234912581</v>
+        <v>-12.80552399237192</v>
       </c>
       <c r="F8">
-        <v>-3.035801244465527</v>
+        <v>-1.348170301147224</v>
       </c>
       <c r="G8">
-        <v>-0.00449274778409771</v>
+        <v>-0.002040920496086067</v>
       </c>
       <c r="H8">
-        <v>-0.000362829899803201</v>
+        <v>-0.0001908085477824724</v>
       </c>
       <c r="I8">
-        <v>-2.872742448185676</v>
+        <v>-1.273275908510744</v>
       </c>
       <c r="J8">
-        <v>-12.75296364773787</v>
+        <v>-7.119922240129448</v>
       </c>
       <c r="K8">
-        <v>-0.2263498361798476</v>
+        <v>-0.1261886633857312</v>
       </c>
       <c r="L8">
-        <v>-0.1654278318740016</v>
+        <v>-0.1229539519167434</v>
       </c>
       <c r="M8">
-        <v>-0.2244778116398753</v>
+        <v>-0.1164501305758769</v>
       </c>
       <c r="N8">
-        <v>-2.977331928379139E-06</v>
+        <v>-1.446783613892056E-06</v>
       </c>
       <c r="O8">
-        <v>-0.02853249603924957</v>
+        <v>-0.01272392780193932</v>
       </c>
       <c r="P8">
-        <v>-0.03775583427259773</v>
+        <v>-0.01684244690405417</v>
       </c>
       <c r="Q8">
-        <v>-0.03834201732434144</v>
+        <v>-0.01720047751151521</v>
       </c>
       <c r="R8">
-        <v>-0.0841145495799317</v>
+        <v>-0.04159120118035284</v>
       </c>
       <c r="S8">
-        <v>-6.407110267694001E-08</v>
+        <v>-2.896670072794836E-08</v>
       </c>
       <c r="T8">
-        <v>-4.393042093489563E-05</v>
+        <v>-1.973293146519497E-05</v>
       </c>
       <c r="U8">
-        <v>-0.5987484424773102</v>
+        <v>-0.282770973101332</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.004920083434061502</v>
+        <v>0.01200668516298566</v>
       </c>
       <c r="B9">
-        <v>1.46913362520809</v>
+        <v>3.587522999407173</v>
       </c>
       <c r="C9">
-        <v>0.3118276241131356</v>
+        <v>0.7517799028006659</v>
       </c>
       <c r="D9">
-        <v>0.3930468029075995</v>
+        <v>0.9481718411829365</v>
       </c>
       <c r="E9">
-        <v>15.84669606428846</v>
+        <v>38.26011822113774</v>
       </c>
       <c r="F9">
-        <v>0.3811553941407787</v>
+        <v>0.9240501092756841</v>
       </c>
       <c r="G9">
-        <v>0.001319939803270046</v>
+        <v>0.00342106528058504</v>
       </c>
       <c r="H9">
-        <v>0.000303093961757541</v>
+        <v>0.001526492567349671</v>
       </c>
       <c r="I9">
-        <v>0.1365919852093001</v>
+        <v>0.339149586370859</v>
       </c>
       <c r="J9">
-        <v>4.161619011141347</v>
+        <v>10.44930738810895</v>
       </c>
       <c r="K9">
-        <v>0.4058802600836957</v>
+        <v>0.9969392039188814</v>
       </c>
       <c r="L9">
-        <v>0.2956215910562547</v>
+        <v>0.7087070277749796</v>
       </c>
       <c r="M9">
-        <v>0.01874411812835501</v>
+        <v>0.04612454215588969</v>
       </c>
       <c r="N9">
-        <v>1.617068050459932E-06</v>
+        <v>4.13302152349263E-06</v>
       </c>
       <c r="O9">
-        <v>0.00170059965870718</v>
+        <v>0.004170293445580402</v>
       </c>
       <c r="P9">
-        <v>0.003108263892347121</v>
+        <v>0.007611852861348118</v>
       </c>
       <c r="Q9">
-        <v>0.003186282505890105</v>
+        <v>0.007803646658861261</v>
       </c>
       <c r="R9">
-        <v>0.02633722091855759</v>
+        <v>0.06400324153552057</v>
       </c>
       <c r="S9">
-        <v>9.512374844999462E-09</v>
+        <v>2.323403914176319E-08</v>
       </c>
       <c r="T9">
-        <v>3.899683951034838E-06</v>
+        <v>9.6173564556003E-06</v>
       </c>
       <c r="U9">
-        <v>0.07740219230016517</v>
+        <v>0.1875385999793156</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>-0.001398397542059534</v>
+        <v>-0.001398397567452204</v>
       </c>
       <c r="B10">
-        <v>-0.7567638610692226</v>
+        <v>-0.7567638633828871</v>
       </c>
       <c r="C10">
-        <v>-0.01833915298878865</v>
+        <v>-0.01833915464969938</v>
       </c>
       <c r="D10">
-        <v>-0.02434508397932846</v>
+        <v>-0.02434508610574479</v>
       </c>
       <c r="E10">
-        <v>-0.1475125870612144</v>
+        <v>-0.1475127353999574</v>
       </c>
       <c r="F10">
-        <v>-0.02691727873299442</v>
+        <v>-0.02691727926384295</v>
       </c>
       <c r="G10">
-        <v>-9.76180340801213E-06</v>
+        <v>-9.761805740280388E-06</v>
       </c>
       <c r="H10">
-        <v>-0.0002333030145638327</v>
+        <v>-0.0002333030146856889</v>
       </c>
       <c r="I10">
-        <v>-0.006488519486036783</v>
+        <v>-0.006488520196118513</v>
       </c>
       <c r="J10">
-        <v>-0.4347469170177117</v>
+        <v>-0.4347469414058653</v>
       </c>
       <c r="K10">
-        <v>-0.001827152392950958</v>
+        <v>-0.001827152431602088</v>
       </c>
       <c r="L10">
-        <v>-0.0007984161044267991</v>
+        <v>-0.0007984169472072378</v>
       </c>
       <c r="M10">
-        <v>-0.002098156185869051</v>
+        <v>-0.002098156361702724</v>
       </c>
       <c r="N10">
-        <v>-1.167375885843779E-05</v>
+        <v>-1.167375885918831E-05</v>
       </c>
       <c r="O10">
-        <v>-0.0004388303867783279</v>
+        <v>-0.0004388303958136228</v>
       </c>
       <c r="P10">
-        <v>-0.003158334696390422</v>
+        <v>-0.003158334704812233</v>
       </c>
       <c r="Q10">
-        <v>-0.003169012298860107</v>
+        <v>-0.00316901230765951</v>
       </c>
       <c r="R10">
-        <v>-0.002121980031527962</v>
+        <v>-0.00212198004946034</v>
       </c>
       <c r="S10">
-        <v>-2.854795956773121E-09</v>
+        <v>-2.854795981879137E-09</v>
       </c>
       <c r="T10">
-        <v>-1.113230941094315E-06</v>
+        <v>-1.113230956882032E-06</v>
       </c>
       <c r="U10">
-        <v>-0.009696643566950125</v>
+        <v>-0.009696643752700358</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.002954330315464141</v>
+        <v>0.002954330198243679</v>
       </c>
       <c r="B11">
-        <v>0.9296644604685348</v>
+        <v>0.9296644499975416</v>
       </c>
       <c r="C11">
-        <v>0.05026759216516265</v>
+        <v>0.0502675812572363</v>
       </c>
       <c r="D11">
-        <v>0.0659620826779018</v>
+        <v>0.0659620686581166</v>
       </c>
       <c r="E11">
-        <v>4.048751093397805</v>
+        <v>4.048750125627511</v>
       </c>
       <c r="F11">
-        <v>0.2642031027915641</v>
+        <v>0.2642031007111815</v>
       </c>
       <c r="G11">
-        <v>0.000541241191072266</v>
+        <v>0.0005412411751467728</v>
       </c>
       <c r="H11">
-        <v>0.0005718955874991771</v>
+        <v>0.0005718955871740697</v>
       </c>
       <c r="I11">
-        <v>0.0563164820403152</v>
+        <v>0.05631647927513334</v>
       </c>
       <c r="J11">
-        <v>1.143238443744542</v>
+        <v>1.143238273991406</v>
       </c>
       <c r="K11">
-        <v>0.09171312863740634</v>
+        <v>0.09171312769961805</v>
       </c>
       <c r="L11">
-        <v>0.4061157252495418</v>
+        <v>0.4061157273253596</v>
       </c>
       <c r="M11">
-        <v>0.01086214369158255</v>
+        <v>0.01086214320577066</v>
       </c>
       <c r="N11">
-        <v>8.925568999183088E-07</v>
+        <v>8.925568960186104E-07</v>
       </c>
       <c r="O11">
-        <v>0.001149453947935687</v>
+        <v>0.001149453905507051</v>
       </c>
       <c r="P11">
-        <v>0.002928291100976472</v>
+        <v>0.002928291069917708</v>
       </c>
       <c r="Q11">
-        <v>0.003045221206478604</v>
+        <v>0.003045221173868066</v>
       </c>
       <c r="R11">
-        <v>0.01506821626864342</v>
+        <v>0.01506821622202468</v>
       </c>
       <c r="S11">
-        <v>7.676074557226225E-09</v>
+        <v>7.676074486544876E-09</v>
       </c>
       <c r="T11">
-        <v>2.070234436892489E-06</v>
+        <v>2.070234352504108E-06</v>
       </c>
       <c r="U11">
-        <v>0.08881798826654566</v>
+        <v>0.08881798766048045</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.006306594916408378</v>
+        <v>0.006306595012885451</v>
       </c>
       <c r="B12">
-        <v>2.380157081054798</v>
+        <v>2.380157087520911</v>
       </c>
       <c r="C12">
-        <v>0.05477911115356571</v>
+        <v>0.0547791172071533</v>
       </c>
       <c r="D12">
-        <v>0.07305764699849322</v>
+        <v>0.07305765473111839</v>
       </c>
       <c r="E12">
-        <v>5.040002776586014</v>
+        <v>5.040003300167782</v>
       </c>
       <c r="F12">
-        <v>1.712789163206113</v>
+        <v>1.71278916474513</v>
       </c>
       <c r="G12">
-        <v>0.0003918421273922874</v>
+        <v>0.0003918421356702562</v>
       </c>
       <c r="H12">
-        <v>3.96691504029842E-05</v>
+        <v>3.966915085715335E-05</v>
       </c>
       <c r="I12">
-        <v>0.08680592292510378</v>
+        <v>0.08680592575682615</v>
       </c>
       <c r="J12">
-        <v>1.158757438656467</v>
+        <v>1.158757525119644</v>
       </c>
       <c r="K12">
-        <v>0.0472085841079361</v>
+        <v>0.04720858401047223</v>
       </c>
       <c r="L12">
-        <v>0.01860273138658017</v>
+        <v>0.01860273162374342</v>
       </c>
       <c r="M12">
-        <v>0.0182950835212147</v>
+        <v>0.01829508428483276</v>
       </c>
       <c r="N12">
-        <v>2.73603767206707E-07</v>
+        <v>2.736037701564103E-07</v>
       </c>
       <c r="O12">
-        <v>0.002394198221511927</v>
+        <v>0.002394198255982694</v>
       </c>
       <c r="P12">
-        <v>0.004936108953631289</v>
+        <v>0.004936108986923933</v>
       </c>
       <c r="Q12">
-        <v>0.005285701904150442</v>
+        <v>0.005285701937512335</v>
       </c>
       <c r="R12">
-        <v>0.01750248317819683</v>
+        <v>0.0175024832420405</v>
       </c>
       <c r="S12">
-        <v>9.216777430350525E-09</v>
+        <v>9.216777491832464E-09</v>
       </c>
       <c r="T12">
-        <v>4.30903274272146E-06</v>
+        <v>4.309032799659242E-06</v>
       </c>
       <c r="U12">
-        <v>0.6779803029887712</v>
+        <v>0.6779803034658904</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.02514339520368171</v>
+        <v>0.02514339545881743</v>
       </c>
       <c r="B13">
-        <v>8.244467594778254</v>
+        <v>8.244467620042853</v>
       </c>
       <c r="C13">
-        <v>0.2866124251531116</v>
+        <v>0.286612441694062</v>
       </c>
       <c r="D13">
-        <v>0.3723967739005953</v>
+        <v>0.3723967951246626</v>
       </c>
       <c r="E13">
-        <v>25.68273950040606</v>
+        <v>25.68274083316533</v>
       </c>
       <c r="F13">
-        <v>4.031258741821499</v>
+        <v>4.03125874798906</v>
       </c>
       <c r="G13">
-        <v>0.002288972557605287</v>
+        <v>0.0022889725822386</v>
       </c>
       <c r="H13">
-        <v>0.0003802853115338708</v>
+        <v>0.0003802853129595604</v>
       </c>
       <c r="I13">
-        <v>0.3771829153770738</v>
+        <v>0.3771829243647376</v>
       </c>
       <c r="J13">
-        <v>7.316895532217199</v>
+        <v>7.316895761104808</v>
       </c>
       <c r="K13">
-        <v>0.3946876989380021</v>
+        <v>0.3946876991712732</v>
       </c>
       <c r="L13">
-        <v>0.106186823390547</v>
+        <v>0.1061868277298861</v>
       </c>
       <c r="M13">
-        <v>0.1953829577343179</v>
+        <v>0.1953829601528564</v>
       </c>
       <c r="N13">
-        <v>2.270205899368356E-06</v>
+        <v>2.270205908860349E-06</v>
       </c>
       <c r="O13">
-        <v>0.01225116968946137</v>
+        <v>0.01225116978403859</v>
       </c>
       <c r="P13">
-        <v>0.01846342210841279</v>
+        <v>0.01846342220407379</v>
       </c>
       <c r="Q13">
-        <v>0.01994378609230701</v>
+        <v>0.01994378619141416</v>
       </c>
       <c r="R13">
-        <v>0.1342957582504124</v>
+        <v>0.1342957584426561</v>
       </c>
       <c r="S13">
-        <v>3.400264915215933E-08</v>
+        <v>3.400264937368363E-08</v>
       </c>
       <c r="T13">
-        <v>1.858819563740111E-05</v>
+        <v>1.858819580279344E-05</v>
       </c>
       <c r="U13">
-        <v>1.440299990752798</v>
+        <v>1.440299992822659</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.000506752698440179</v>
+        <v>0.0005067527158302867</v>
       </c>
       <c r="B14">
-        <v>0.2090725084754116</v>
+        <v>0.2090725109344823</v>
       </c>
       <c r="C14">
-        <v>0.01296366884275888</v>
+        <v>0.01296366967031666</v>
       </c>
       <c r="D14">
-        <v>0.01690434946378652</v>
+        <v>0.01690435052064548</v>
       </c>
       <c r="E14">
-        <v>0.5827242767184685</v>
+        <v>0.5827243569146733</v>
       </c>
       <c r="F14">
-        <v>0.05504801634620456</v>
+        <v>0.0550480169845638</v>
       </c>
       <c r="G14">
-        <v>0.0001737504493250648</v>
+        <v>0.0001737504506551427</v>
       </c>
       <c r="H14">
-        <v>1.504736284799865E-05</v>
+        <v>1.504736298306767E-05</v>
       </c>
       <c r="I14">
-        <v>0.01732092388596248</v>
+        <v>0.01732092457981292</v>
       </c>
       <c r="J14">
-        <v>0.3091296986112552</v>
+        <v>0.3091297112805643</v>
       </c>
       <c r="K14">
-        <v>0.06332675958059696</v>
+        <v>0.06332675963854625</v>
       </c>
       <c r="L14">
-        <v>0.04609385963832566</v>
+        <v>0.0460938599997542</v>
       </c>
       <c r="M14">
-        <v>0.00141851803128909</v>
+        <v>0.001418518233373915</v>
       </c>
       <c r="N14">
-        <v>2.385586325560784E-07</v>
+        <v>2.385586339159855E-07</v>
       </c>
       <c r="O14">
-        <v>0.0001724650594506207</v>
+        <v>0.0001724650672955013</v>
       </c>
       <c r="P14">
-        <v>0.0004212607702962896</v>
+        <v>0.0004212607876593356</v>
       </c>
       <c r="Q14">
-        <v>0.0004307690048541318</v>
+        <v>0.0004307690226090304</v>
       </c>
       <c r="R14">
-        <v>0.003780097113326589</v>
+        <v>0.003780097128062932</v>
       </c>
       <c r="S14">
-        <v>1.291043682571992E-09</v>
+        <v>1.291043701133235E-09</v>
       </c>
       <c r="T14">
-        <v>4.398194216935978E-07</v>
+        <v>4.398194341474022E-07</v>
       </c>
       <c r="U14">
-        <v>0.01027810270339144</v>
+        <v>0.01027810296563046</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.0001116860927797902</v>
+        <v>0.0001116860921782589</v>
       </c>
       <c r="B15">
-        <v>0.03502601342908648</v>
+        <v>0.03502601346048988</v>
       </c>
       <c r="C15">
-        <v>0.001836060729735545</v>
+        <v>0.001836060661660842</v>
       </c>
       <c r="D15">
-        <v>0.002400947656847138</v>
+        <v>0.002400947574801875</v>
       </c>
       <c r="E15">
-        <v>0.1765880653079173</v>
+        <v>0.1765880601251559</v>
       </c>
       <c r="F15">
-        <v>0.009995815794573513</v>
+        <v>0.009995815786370411</v>
       </c>
       <c r="G15">
-        <v>1.081273894467317E-05</v>
+        <v>1.081273891202696E-05</v>
       </c>
       <c r="H15">
-        <v>1.173016339968257E-06</v>
+        <v>1.173016348370108E-06</v>
       </c>
       <c r="I15">
-        <v>0.001591696074100287</v>
+        <v>0.001591696223802578</v>
       </c>
       <c r="J15">
-        <v>0.04413418314020646</v>
+        <v>0.04413418210600928</v>
       </c>
       <c r="K15">
-        <v>0.002933684878007346</v>
+        <v>0.002933684913003902</v>
       </c>
       <c r="L15">
-        <v>0.02273867578378852</v>
+        <v>0.02273867587968219</v>
       </c>
       <c r="M15">
-        <v>0.0002052876617504548</v>
+        <v>0.0002052876767694939</v>
       </c>
       <c r="N15">
-        <v>3.355108718139544E-08</v>
+        <v>3.355108724114039E-08</v>
       </c>
       <c r="O15">
-        <v>4.868159321016228E-05</v>
+        <v>4.86815931339889E-05</v>
       </c>
       <c r="P15">
-        <v>0.000127772552719501</v>
+        <v>0.0001277725531130495</v>
       </c>
       <c r="Q15">
-        <v>0.0001323719600079347</v>
+        <v>0.0001323719603720522</v>
       </c>
       <c r="R15">
-        <v>0.0002357345485109135</v>
+        <v>0.0002357345512074528</v>
       </c>
       <c r="S15">
-        <v>3.512563998741362E-10</v>
+        <v>3.512564005962409E-10</v>
       </c>
       <c r="T15">
-        <v>7.913158195496756E-08</v>
+        <v>7.913158220438019E-08</v>
       </c>
       <c r="U15">
-        <v>0.003053063231154696</v>
+        <v>0.003053063230511857</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.008308025770475458</v>
+        <v>0.008308025775666559</v>
       </c>
       <c r="B16">
-        <v>2.994995444990702</v>
+        <v>2.99499544574799</v>
       </c>
       <c r="C16">
-        <v>0.08132472749917807</v>
+        <v>0.08132472739911115</v>
       </c>
       <c r="D16">
-        <v>0.1081263120596229</v>
+        <v>0.108126311951682</v>
       </c>
       <c r="E16">
-        <v>6.126189255180691</v>
+        <v>6.12618922581112</v>
       </c>
       <c r="F16">
-        <v>1.844189618686522</v>
+        <v>1.844189618789033</v>
       </c>
       <c r="G16">
-        <v>0.0007933755282022679</v>
+        <v>0.0007933755284034286</v>
       </c>
       <c r="H16">
-        <v>0.0001081595967775501</v>
+        <v>0.0001081595968620237</v>
       </c>
       <c r="I16">
-        <v>0.1244992527103788</v>
+        <v>0.1244992539796185</v>
       </c>
       <c r="J16">
-        <v>1.881571000567252</v>
+        <v>1.881570994673283</v>
       </c>
       <c r="K16">
-        <v>0.2459796785368673</v>
+        <v>0.2459796784319339</v>
       </c>
       <c r="L16">
-        <v>0.08189164410750974</v>
+        <v>0.08189164541588138</v>
       </c>
       <c r="M16">
-        <v>0.01995815009780346</v>
+        <v>0.01995815032290478</v>
       </c>
       <c r="N16">
-        <v>5.53302390146824E-07</v>
+        <v>5.533023908194313E-07</v>
       </c>
       <c r="O16">
-        <v>0.003524271905444115</v>
+        <v>0.003524271908703368</v>
       </c>
       <c r="P16">
-        <v>0.006931818434115715</v>
+        <v>0.006931818438470975</v>
       </c>
       <c r="Q16">
-        <v>0.007618644158733817</v>
+        <v>0.007618644162634151</v>
       </c>
       <c r="R16">
-        <v>0.04827422234409749</v>
+        <v>0.04827422236131556</v>
       </c>
       <c r="S16">
-        <v>1.252849984418828E-08</v>
+        <v>1.252849985924523E-08</v>
       </c>
       <c r="T16">
-        <v>5.951745541603818E-06</v>
+        <v>5.951745547265991E-06</v>
       </c>
       <c r="U16">
-        <v>0.6974983685606012</v>
+        <v>0.6974983685286213</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0002716546037256985</v>
+        <v>-0.0002716546305790783</v>
       </c>
       <c r="B17">
-        <v>-2.372984742320073</v>
+        <v>-2.372984744850147</v>
       </c>
       <c r="C17">
-        <v>-0.1201199364522475</v>
+        <v>-0.1201199381906609</v>
       </c>
       <c r="D17">
-        <v>-0.1599610729078144</v>
+        <v>-0.1599610751344978</v>
       </c>
       <c r="E17">
-        <v>-1.265780974325679</v>
+        <v>-1.265781129118042</v>
       </c>
       <c r="F17">
-        <v>-0.007903463551571632</v>
+        <v>-0.00790346414950048</v>
       </c>
       <c r="G17">
-        <v>-5.236320919209528E-06</v>
+        <v>-5.236323382613483E-06</v>
       </c>
       <c r="H17">
-        <v>-2.145683896161454E-05</v>
+        <v>-2.145683909132518E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02399118920114385</v>
+        <v>-0.02399118991750112</v>
       </c>
       <c r="J17">
-        <v>-2.349946947515487</v>
+        <v>-2.349946973179552</v>
       </c>
       <c r="K17">
-        <v>-0.001044696218226963</v>
+        <v>-0.001044696260136879</v>
       </c>
       <c r="L17">
-        <v>-0.0005566556548893581</v>
+        <v>-0.0005566561905239766</v>
       </c>
       <c r="M17">
-        <v>-0.001265722926238842</v>
+        <v>-0.001265723108830781</v>
       </c>
       <c r="N17">
-        <v>-1.017244140573054E-06</v>
+        <v>-1.017244141382037E-06</v>
       </c>
       <c r="O17">
-        <v>-9.178311587808686E-05</v>
+        <v>-9.17831254060559E-05</v>
       </c>
       <c r="P17">
-        <v>-0.0006027119613939993</v>
+        <v>-0.0006027119706078978</v>
       </c>
       <c r="Q17">
-        <v>-0.0006068256806977131</v>
+        <v>-0.0006068256903795118</v>
       </c>
       <c r="R17">
-        <v>-0.003723410318947055</v>
+        <v>-0.003723410337725462</v>
       </c>
       <c r="S17">
-        <v>-6.903281000391467E-09</v>
+        <v>-6.90328102402622E-09</v>
       </c>
       <c r="T17">
-        <v>-2.884956363111676E-06</v>
+        <v>-2.884956379724153E-06</v>
       </c>
       <c r="U17">
-        <v>-0.002983724347538113</v>
+        <v>-0.002983724558823628</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.001472941887565855</v>
+        <v>0.001472941895877712</v>
       </c>
       <c r="B18">
-        <v>0.4466068035078593</v>
+        <v>0.4466068055809291</v>
       </c>
       <c r="C18">
-        <v>0.06155749392909356</v>
+        <v>0.06155749437446659</v>
       </c>
       <c r="D18">
-        <v>0.08070113080292152</v>
+        <v>0.08070113138108936</v>
       </c>
       <c r="E18">
-        <v>4.132010291704068</v>
+        <v>4.132010329828975</v>
       </c>
       <c r="F18">
-        <v>0.1258350351158387</v>
+        <v>0.1258350355799078</v>
       </c>
       <c r="G18">
-        <v>0.0009776636116093206</v>
+        <v>0.000977663612770085</v>
       </c>
       <c r="H18">
-        <v>8.922302575177431E-05</v>
+        <v>8.922302584726668E-05</v>
       </c>
       <c r="I18">
-        <v>0.07847873190524596</v>
+        <v>0.07847873292151449</v>
       </c>
       <c r="J18">
-        <v>1.160180121288143</v>
+        <v>1.160180127364004</v>
       </c>
       <c r="K18">
-        <v>0.1157339475965174</v>
+        <v>0.1157339477518437</v>
       </c>
       <c r="L18">
-        <v>0.03126211753005712</v>
+        <v>0.03126211795617966</v>
       </c>
       <c r="M18">
-        <v>0.01528680258557813</v>
+        <v>0.01528680274328042</v>
       </c>
       <c r="N18">
-        <v>2.443636057722111E-07</v>
+        <v>2.443636063670039E-07</v>
       </c>
       <c r="O18">
-        <v>0.0007059247964974666</v>
+        <v>0.000705924801015678</v>
       </c>
       <c r="P18">
-        <v>0.001177074645891071</v>
+        <v>0.001177074650637779</v>
       </c>
       <c r="Q18">
-        <v>0.001227075498761865</v>
+        <v>0.001227075503796825</v>
       </c>
       <c r="R18">
-        <v>0.00483759785850662</v>
+        <v>0.004837597874886074</v>
       </c>
       <c r="S18">
-        <v>2.752645499148837E-09</v>
+        <v>2.752645512730384E-09</v>
       </c>
       <c r="T18">
-        <v>1.396138048345291E-06</v>
+        <v>1.396138057909467E-06</v>
       </c>
       <c r="U18">
-        <v>0.03991210013237416</v>
+        <v>0.0399121002782124</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>0.0001153209425120324</v>
+        <v>0.0001153209425734963</v>
       </c>
       <c r="B19">
-        <v>0.02510122912425886</v>
+        <v>0.02510122913332753</v>
       </c>
       <c r="C19">
-        <v>0.001026321754252939</v>
+        <v>0.001026321755897338</v>
       </c>
       <c r="D19">
-        <v>0.001120012169064754</v>
+        <v>0.001120012171112057</v>
       </c>
       <c r="E19">
-        <v>0.06055688768726327</v>
+        <v>0.06055688768700671</v>
       </c>
       <c r="F19">
-        <v>0.01378805925302738</v>
+        <v>0.01378805925452841</v>
       </c>
       <c r="G19">
-        <v>1.014752286100685E-05</v>
+        <v>1.014752286656458E-05</v>
       </c>
       <c r="H19">
-        <v>4.403598408468652E-05</v>
+        <v>4.403598408558472E-05</v>
       </c>
       <c r="I19">
-        <v>0.001051601479050608</v>
+        <v>0.001051601486861122</v>
       </c>
       <c r="J19">
-        <v>0.02081668036627615</v>
+        <v>0.02081668036432239</v>
       </c>
       <c r="K19">
-        <v>0.001476698358564506</v>
+        <v>0.001476698358344462</v>
       </c>
       <c r="L19">
-        <v>0.006459781521121599</v>
+        <v>0.006459781517605026</v>
       </c>
       <c r="M19">
-        <v>0.0001626782559510069</v>
+        <v>0.000162678257466636</v>
       </c>
       <c r="N19">
-        <v>5.453074597386746E-08</v>
+        <v>5.453074598138386E-08</v>
       </c>
       <c r="O19">
-        <v>3.500479420130749E-05</v>
+        <v>3.500479423537927E-05</v>
       </c>
       <c r="P19">
-        <v>0.0004227994058062644</v>
+        <v>0.0004227994058625091</v>
       </c>
       <c r="Q19">
-        <v>0.0006490091932211448</v>
+        <v>0.0006490091932749123</v>
       </c>
       <c r="R19">
-        <v>0.004768146427748436</v>
+        <v>0.004768146427867108</v>
       </c>
       <c r="S19">
-        <v>2.440524841581184E-10</v>
+        <v>2.44052484177347E-10</v>
       </c>
       <c r="T19">
-        <v>6.454417719817281E-08</v>
+        <v>6.454417725380003E-08</v>
       </c>
       <c r="U19">
-        <v>0.005234764335388258</v>
+        <v>0.005234764335473355</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>-0.0008081264905626615</v>
+        <v>-0.0008081265000343452</v>
       </c>
       <c r="B20">
-        <v>-0.2295373648950274</v>
+        <v>-0.2295373660937255</v>
       </c>
       <c r="C20">
-        <v>-0.05159534166206375</v>
+        <v>-0.05159534224505226</v>
       </c>
       <c r="D20">
-        <v>-0.06665592836970054</v>
+        <v>-0.06665592911897686</v>
       </c>
       <c r="E20">
-        <v>-1.41046007005785</v>
+        <v>-1.410460121731641</v>
       </c>
       <c r="F20">
-        <v>-0.05831111769460639</v>
+        <v>-0.05831111796008855</v>
       </c>
       <c r="G20">
-        <v>-0.0001822553854934682</v>
+        <v>-0.0001822553864798526</v>
       </c>
       <c r="H20">
-        <v>-4.752512929891862E-05</v>
+        <v>-4.752512935397977E-05</v>
       </c>
       <c r="I20">
-        <v>-0.0186971534306735</v>
+        <v>-0.01869715386832569</v>
       </c>
       <c r="J20">
-        <v>-0.9231011983584365</v>
+        <v>-0.9231012068096072</v>
       </c>
       <c r="K20">
-        <v>-0.1039225953794432</v>
+        <v>-0.1039225954359349</v>
       </c>
       <c r="L20">
-        <v>-0.01063923015744303</v>
+        <v>-0.01063923052776026</v>
       </c>
       <c r="M20">
-        <v>-0.004854647535390679</v>
+        <v>-0.004854647618946889</v>
       </c>
       <c r="N20">
-        <v>-1.43879570505102E-07</v>
+        <v>-1.438795709126352E-07</v>
       </c>
       <c r="O20">
-        <v>-0.0003364307433598033</v>
+        <v>-0.000336430747105908</v>
       </c>
       <c r="P20">
-        <v>-0.0004101379594045735</v>
+        <v>-0.0004101379630106191</v>
       </c>
       <c r="Q20">
-        <v>-0.0004252006768185018</v>
+        <v>-0.0004252006805676734</v>
       </c>
       <c r="R20">
-        <v>-0.00265858296699753</v>
+        <v>-0.002658582977084518</v>
       </c>
       <c r="S20">
-        <v>-1.144327270199735E-09</v>
+        <v>-1.14432728106841E-09</v>
       </c>
       <c r="T20">
-        <v>-7.042086955962113E-07</v>
+        <v>-7.042087024677774E-07</v>
       </c>
       <c r="U20">
-        <v>-0.01431641532114871</v>
+        <v>-0.01431641540392457</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>-0.001668242708615824</v>
+        <v>-0.001668242723736179</v>
       </c>
       <c r="B21">
-        <v>-0.6162118519528299</v>
+        <v>-0.6162118533830964</v>
       </c>
       <c r="C21">
-        <v>-0.1278517758814769</v>
+        <v>-0.1278517768861608</v>
       </c>
       <c r="D21">
-        <v>-0.165790575326408</v>
+        <v>-0.1657905766219277</v>
       </c>
       <c r="E21">
-        <v>-2.682004301929678</v>
+        <v>-2.682004391711237</v>
       </c>
       <c r="F21">
-        <v>-0.1675366151090999</v>
+        <v>-0.1675366154205263</v>
       </c>
       <c r="G21">
-        <v>-0.0003625034901135369</v>
+        <v>-0.0003625034917202129</v>
       </c>
       <c r="H21">
-        <v>-0.0001240375863443338</v>
+        <v>-0.0001240375864018446</v>
       </c>
       <c r="I21">
-        <v>-0.03917146105473773</v>
+        <v>-0.03917146134764309</v>
       </c>
       <c r="J21">
-        <v>-2.364617667572605</v>
+        <v>-2.36461768251603</v>
       </c>
       <c r="K21">
-        <v>-0.2019829564747894</v>
+        <v>-0.2019829565381127</v>
       </c>
       <c r="L21">
-        <v>-0.01813378270847057</v>
+        <v>-0.01813378306977675</v>
       </c>
       <c r="M21">
-        <v>-0.00740024377880313</v>
+        <v>-0.007400243855588317</v>
       </c>
       <c r="N21">
-        <v>-3.071098696271077E-07</v>
+        <v>-3.071098701502581E-07</v>
       </c>
       <c r="O21">
-        <v>-0.0006888502077074643</v>
+        <v>-0.0006888502132183247</v>
       </c>
       <c r="P21">
-        <v>-0.001001551523647887</v>
+        <v>-0.001001551527362645</v>
       </c>
       <c r="Q21">
-        <v>-0.001052346477648252</v>
+        <v>-0.001052346481499194</v>
       </c>
       <c r="R21">
-        <v>-0.005979196388476461</v>
+        <v>-0.005979196401797973</v>
       </c>
       <c r="S21">
-        <v>-2.755513061170725E-09</v>
+        <v>-2.755513075017982E-09</v>
       </c>
       <c r="T21">
-        <v>-1.690064372904912E-06</v>
+        <v>-1.690064382106214E-06</v>
       </c>
       <c r="U21">
-        <v>-0.04627876040005649</v>
+        <v>-0.04627876048537566</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22">
-        <v>0.002840721753238805</v>
+        <v>0.002840721738137089</v>
       </c>
       <c r="B22">
-        <v>0.7639651333922632</v>
+        <v>0.7639651323079923</v>
       </c>
       <c r="C22">
-        <v>0.04502625789384448</v>
+        <v>0.04502625703059063</v>
       </c>
       <c r="D22">
-        <v>0.05861454557213922</v>
+        <v>0.05861454448249982</v>
       </c>
       <c r="E22">
-        <v>3.67771648106792</v>
+        <v>3.677716396348028</v>
       </c>
       <c r="F22">
-        <v>0.1970142954984188</v>
+        <v>0.197014295243576</v>
       </c>
       <c r="G22">
-        <v>0.0002860356527598897</v>
+        <v>0.0002860356515898997</v>
       </c>
       <c r="H22">
-        <v>3.820379854581006E-05</v>
+        <v>3.820379847911068E-05</v>
       </c>
       <c r="I22">
-        <v>0.03842833663273422</v>
+        <v>0.03842833631084382</v>
       </c>
       <c r="J22">
-        <v>0.7911679154094833</v>
+        <v>0.7911679009449383</v>
       </c>
       <c r="K22">
-        <v>0.08027073766828041</v>
+        <v>0.08027073757577396</v>
       </c>
       <c r="L22">
-        <v>0.01617316145816137</v>
+        <v>0.01617316143210727</v>
       </c>
       <c r="M22">
-        <v>0.008298706226362898</v>
+        <v>0.008298706117601185</v>
       </c>
       <c r="N22">
-        <v>3.009179196397232E-07</v>
+        <v>3.009179191023461E-07</v>
       </c>
       <c r="O22">
-        <v>0.001561111741876576</v>
+        <v>0.001561111736721922</v>
       </c>
       <c r="P22">
-        <v>0.00242287011044428</v>
+        <v>0.002422870104931979</v>
       </c>
       <c r="Q22">
-        <v>0.002485676998014024</v>
+        <v>0.002485676992414794</v>
       </c>
       <c r="R22">
-        <v>0.005126486685401108</v>
+        <v>0.005126486675025552</v>
       </c>
       <c r="S22">
-        <v>3.476906392795751E-09</v>
+        <v>3.476906383143128E-09</v>
       </c>
       <c r="T22">
-        <v>2.012499598679857E-06</v>
+        <v>2.012499590039987E-06</v>
       </c>
       <c r="U22">
-        <v>0.05049445730062507</v>
+        <v>0.05049445719980161</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23">
-        <v>0.0003053525263640211</v>
+        <v>0.000305352526075146</v>
       </c>
       <c r="B23">
-        <v>0.1884542976465381</v>
+        <v>0.1884542976172318</v>
       </c>
       <c r="C23">
-        <v>0.004663679519182975</v>
+        <v>0.004663679499933612</v>
       </c>
       <c r="D23">
-        <v>0.008280256806288981</v>
+        <v>0.008280256781735315</v>
       </c>
       <c r="E23">
-        <v>3.59025530966711</v>
+        <v>3.590255307574868</v>
       </c>
       <c r="F23">
-        <v>0.05929106169921625</v>
+        <v>0.05929106169358203</v>
       </c>
       <c r="G23">
-        <v>1.336079652848856E-05</v>
+        <v>1.336079649725767E-05</v>
       </c>
       <c r="H23">
-        <v>5.282552519909894E-06</v>
+        <v>5.282552518773147E-06</v>
       </c>
       <c r="I23">
-        <v>0.009731776642444699</v>
+        <v>0.009731776631985324</v>
       </c>
       <c r="J23">
-        <v>0.1466184946584427</v>
+        <v>0.1466184943003523</v>
       </c>
       <c r="K23">
-        <v>0.003031429508795748</v>
+        <v>0.003031429504115671</v>
       </c>
       <c r="L23">
-        <v>0.00709227445502254</v>
+        <v>0.007092274451316292</v>
       </c>
       <c r="M23">
-        <v>0.002112406802633662</v>
+        <v>0.002112406802418051</v>
       </c>
       <c r="N23">
-        <v>8.610568478608238E-08</v>
+        <v>8.610568478193311E-08</v>
       </c>
       <c r="O23">
-        <v>0.0001495603506043713</v>
+        <v>0.0001495603505061764</v>
       </c>
       <c r="P23">
-        <v>0.0003475468002142304</v>
+        <v>0.0003475468001527535</v>
       </c>
       <c r="Q23">
-        <v>0.0003870232757162583</v>
+        <v>0.0003870232756511987</v>
       </c>
       <c r="R23">
-        <v>0.0003044000571251755</v>
+        <v>0.0003044000567862323</v>
       </c>
       <c r="S23">
-        <v>7.593929760574863E-10</v>
+        <v>7.593929758121958E-10</v>
       </c>
       <c r="T23">
-        <v>3.356889714298839E-07</v>
+        <v>3.356889712237757E-07</v>
       </c>
       <c r="U23">
-        <v>0.02561864774359953</v>
+        <v>0.02561864774159915</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24">
-        <v>0.0001987390711578564</v>
+        <v>0.0001987390739344664</v>
       </c>
       <c r="B24">
-        <v>0.01638158822804531</v>
+        <v>0.01638158858840194</v>
       </c>
       <c r="C24">
-        <v>0.0002372667366199391</v>
+        <v>0.0002372668504647263</v>
       </c>
       <c r="D24">
-        <v>0.0003729306277176755</v>
+        <v>0.0003729307766910578</v>
       </c>
       <c r="E24">
-        <v>0.1010706026114232</v>
+        <v>0.1010706116093661</v>
       </c>
       <c r="F24">
-        <v>0.004679762066129653</v>
+        <v>0.004679762133218307</v>
       </c>
       <c r="G24">
-        <v>9.647172839997801E-07</v>
+        <v>9.647175374382286E-07</v>
       </c>
       <c r="H24">
-        <v>3.71246895349496E-07</v>
+        <v>3.712469166798844E-07</v>
       </c>
       <c r="I24">
-        <v>0.0009929661102364489</v>
+        <v>0.0009929663434815898</v>
       </c>
       <c r="J24">
-        <v>0.005452344271089538</v>
+        <v>0.005452345841410588</v>
       </c>
       <c r="K24">
-        <v>0.0001450796206604476</v>
+        <v>0.0001450796378328024</v>
       </c>
       <c r="L24">
-        <v>0.000284732083902239</v>
+        <v>0.0002847320842750255</v>
       </c>
       <c r="M24">
-        <v>0.0001673101403457996</v>
+        <v>0.000167310179245446</v>
       </c>
       <c r="N24">
-        <v>7.189255151584499E-09</v>
+        <v>7.189255239999915E-09</v>
       </c>
       <c r="O24">
-        <v>6.630469943179145E-05</v>
+        <v>6.630470052678837E-05</v>
       </c>
       <c r="P24">
-        <v>0.0002234007528525977</v>
+        <v>0.0002234007536051897</v>
       </c>
       <c r="Q24">
-        <v>0.0002271348884804575</v>
+        <v>0.0002271348892329562</v>
       </c>
       <c r="R24">
-        <v>2.011050029841022E-05</v>
+        <v>2.011050490451779E-05</v>
       </c>
       <c r="S24">
-        <v>1.218366469300206E-10</v>
+        <v>1.218366489952184E-10</v>
       </c>
       <c r="T24">
-        <v>6.16544092647846E-08</v>
+        <v>6.165441143057231E-08</v>
       </c>
       <c r="U24">
-        <v>0.002024188064694445</v>
+        <v>0.002024188082936331</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25">
-        <v>-0.001960372392602606</v>
+        <v>-0.001960372386763966</v>
       </c>
       <c r="B25">
-        <v>-0.4456404823612369</v>
+        <v>-0.4456404818454812</v>
       </c>
       <c r="C25">
-        <v>-0.04537182829967214</v>
+        <v>-0.04537182800704605</v>
       </c>
       <c r="D25">
-        <v>-0.06015808198107459</v>
+        <v>-0.06015808160623956</v>
       </c>
       <c r="E25">
-        <v>-1.512129497549946</v>
+        <v>-1.512129467189845</v>
       </c>
       <c r="F25">
-        <v>-0.1105926373564075</v>
+        <v>-0.1105926372637829</v>
       </c>
       <c r="G25">
-        <v>-0.0003596275578300317</v>
+        <v>-0.0003596275573939944</v>
       </c>
       <c r="H25">
-        <v>-0.002855970012385006</v>
+        <v>-0.002855970012360255</v>
       </c>
       <c r="I25">
-        <v>-0.02563738715926533</v>
+        <v>-0.02563738698795978</v>
       </c>
       <c r="J25">
-        <v>-1.17187336803063</v>
+        <v>-1.17187336273718</v>
       </c>
       <c r="K25">
-        <v>-0.04337626364197607</v>
+        <v>-0.04337626359627039</v>
       </c>
       <c r="L25">
-        <v>-0.01734705353035663</v>
+        <v>-0.01734705330524461</v>
       </c>
       <c r="M25">
-        <v>-0.004300231167351089</v>
+        <v>-0.004300231126157792</v>
       </c>
       <c r="N25">
-        <v>-5.11658257226443E-07</v>
+        <v>-5.116582570652067E-07</v>
       </c>
       <c r="O25">
-        <v>-0.001009445026263787</v>
+        <v>-0.001009445024154566</v>
       </c>
       <c r="P25">
-        <v>-0.001151205769788334</v>
+        <v>-0.001151205767589431</v>
       </c>
       <c r="Q25">
-        <v>-0.001187084086757908</v>
+        <v>-0.001187084084561438</v>
       </c>
       <c r="R25">
-        <v>-0.003746186858156189</v>
+        <v>-0.003746186853592147</v>
       </c>
       <c r="S25">
-        <v>-2.271545122758533E-09</v>
+        <v>-2.271545116914654E-09</v>
       </c>
       <c r="T25">
-        <v>-1.410274340513098E-06</v>
+        <v>-1.41027433692105E-06</v>
       </c>
       <c r="U25">
-        <v>-0.02499607202318926</v>
+        <v>-0.02499607198772791</v>
       </c>
     </row>
   </sheetData>

--- a/results/sterilization_APOS/data_uniquie_sterilization_APOS_recipe.xlsx
+++ b/results/sterilization_APOS/data_uniquie_sterilization_APOS_recipe.xlsx
@@ -507,1562 +507,1562 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>-0.0001933859959586804</v>
+        <v>-0.0001933860028012976</v>
       </c>
       <c r="B2">
-        <v>-3.02042693955436</v>
+        <v>-3.020426940493366</v>
       </c>
       <c r="C2">
-        <v>-0.1585863087301743</v>
+        <v>-0.1585863090566246</v>
       </c>
       <c r="D2">
-        <v>-0.2296331739422318</v>
+        <v>-0.2296331743655909</v>
       </c>
       <c r="E2">
-        <v>-8.833295426634816</v>
+        <v>-8.833295455048589</v>
       </c>
       <c r="F2">
-        <v>-0.005003261971909883</v>
+        <v>-0.005003262147351823</v>
       </c>
       <c r="G2">
-        <v>-2.655622501411887E-06</v>
+        <v>-2.65562303434453E-06</v>
       </c>
       <c r="H2">
-        <v>-4.732000202460807E-06</v>
+        <v>-4.732000231612014E-06</v>
       </c>
       <c r="I2">
-        <v>-0.00983137704398296</v>
+        <v>-0.009831377278836078</v>
       </c>
       <c r="J2">
-        <v>-1.917643185857459</v>
+        <v>-1.917643191106716</v>
       </c>
       <c r="K2">
-        <v>-0.000428346491957658</v>
+        <v>-0.0004283465081050021</v>
       </c>
       <c r="L2">
-        <v>-0.0003125670760587789</v>
+        <v>-0.000312567903186484</v>
       </c>
       <c r="M2">
-        <v>-0.0006251337695050113</v>
+        <v>-0.0006251338213335835</v>
       </c>
       <c r="N2">
-        <v>-2.204923860497489E-07</v>
+        <v>-2.204923864412135E-07</v>
       </c>
       <c r="O2">
-        <v>-6.373949402669475E-05</v>
+        <v>-6.373949689585378E-05</v>
       </c>
       <c r="P2">
-        <v>-0.0004646641393001557</v>
+        <v>-0.0004646641453100081</v>
       </c>
       <c r="Q2">
-        <v>-0.0004671485286057117</v>
+        <v>-0.0004671485346705765</v>
       </c>
       <c r="R2">
-        <v>-0.0015276008965654</v>
+        <v>-0.001527600900594063</v>
       </c>
       <c r="S2">
-        <v>-8.798283380027365E-09</v>
+        <v>-8.798283393183797E-09</v>
       </c>
       <c r="T2">
-        <v>-3.31702625094275E-06</v>
+        <v>-3.317026255608486E-06</v>
       </c>
       <c r="U2">
-        <v>-0.00183659392258653</v>
+        <v>-0.001836593986904432</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>-0.0001646121269421261</v>
+        <v>-0.0001646121327858747</v>
       </c>
       <c r="B3">
-        <v>-2.551055178660724</v>
+        <v>-2.551055179073624</v>
       </c>
       <c r="C3">
-        <v>-0.1339373206458538</v>
+        <v>-0.1339373210475047</v>
       </c>
       <c r="D3">
-        <v>-0.1939394973378071</v>
+        <v>-0.1939394978520611</v>
       </c>
       <c r="E3">
-        <v>-7.460966699129567</v>
+        <v>-7.460966730969732</v>
       </c>
       <c r="F3">
-        <v>-0.004357871142174629</v>
+        <v>-0.00435787133955465</v>
       </c>
       <c r="G3">
-        <v>-2.414200244441777E-06</v>
+        <v>-2.414200727392206E-06</v>
       </c>
       <c r="H3">
-        <v>-4.015526104233521E-06</v>
+        <v>-4.015526122767113E-06</v>
       </c>
       <c r="I3">
-        <v>-0.008600984113094959</v>
+        <v>-0.008600984078452056</v>
       </c>
       <c r="J3">
-        <v>-1.619602089097953</v>
+        <v>-1.619602095026523</v>
       </c>
       <c r="K3">
-        <v>-0.0003773714776004107</v>
+        <v>-0.0003773714792338035</v>
       </c>
       <c r="L3">
-        <v>-0.0002772552936281981</v>
+        <v>-0.0002772552680706568</v>
       </c>
       <c r="M3">
-        <v>-0.0005834807262770857</v>
+        <v>-0.0005834807553555023</v>
       </c>
       <c r="N3">
-        <v>-1.862772739542715E-07</v>
+        <v>-1.862772740861743E-07</v>
       </c>
       <c r="O3">
-        <v>-5.55431900242438E-05</v>
+        <v>-5.554319177780704E-05</v>
       </c>
       <c r="P3">
-        <v>-0.0003938720966016996</v>
+        <v>-0.0003938721003498842</v>
       </c>
       <c r="Q3">
-        <v>-0.0003961234635489988</v>
+        <v>-0.000396123467679676</v>
       </c>
       <c r="R3">
-        <v>-0.001449330885315389</v>
+        <v>-0.001449330887411247</v>
       </c>
       <c r="S3">
-        <v>-7.43174378092314E-09</v>
+        <v>-7.431743784643213E-09</v>
       </c>
       <c r="T3">
-        <v>-2.803970321291021E-06</v>
+        <v>-2.803970324020329E-06</v>
       </c>
       <c r="U3">
-        <v>-0.001600391927651236</v>
+        <v>-0.001600392020517019</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>-0.006490748662146639</v>
+        <v>-0.006490748568419726</v>
       </c>
       <c r="B4">
-        <v>-0.5144198924183964</v>
+        <v>-0.5144198578179875</v>
       </c>
       <c r="C4">
-        <v>-0.5126269716953604</v>
+        <v>-0.5126269705179272</v>
       </c>
       <c r="D4">
-        <v>-0.6554899406050764</v>
+        <v>-0.6554899389607093</v>
       </c>
       <c r="E4">
-        <v>-44.95788834875821</v>
+        <v>-44.95788816826185</v>
       </c>
       <c r="F4">
-        <v>-0.1431501700159915</v>
+        <v>-0.1431501634878282</v>
       </c>
       <c r="G4">
-        <v>-0.0007222434630796929</v>
+        <v>-0.0007222434556892008</v>
       </c>
       <c r="H4">
-        <v>-2.227253944278255E-05</v>
+        <v>-2.227253860606121E-05</v>
       </c>
       <c r="I4">
-        <v>-0.07328943051904474</v>
+        <v>-0.07328942148593608</v>
       </c>
       <c r="J4">
-        <v>-7.492091906969931</v>
+        <v>-7.49209188120887</v>
       </c>
       <c r="K4">
-        <v>-0.05105694580583398</v>
+        <v>-0.05105694479705069</v>
       </c>
       <c r="L4">
-        <v>-0.03497458438351133</v>
+        <v>-0.03497458070546267</v>
       </c>
       <c r="M4">
-        <v>-0.02634864205161977</v>
+        <v>-0.02634864116977293</v>
       </c>
       <c r="N4">
-        <v>-2.485598673841569E-07</v>
+        <v>-2.485598566858541E-07</v>
       </c>
       <c r="O4">
-        <v>-0.002256762928562099</v>
+        <v>-0.002256762869199252</v>
       </c>
       <c r="P4">
-        <v>-0.001651215662086761</v>
+        <v>-0.001651215545179122</v>
       </c>
       <c r="Q4">
-        <v>-0.001720588479137832</v>
+        <v>-0.001720588358381096</v>
       </c>
       <c r="R4">
-        <v>-0.004639160352723729</v>
+        <v>-0.0046391602337609</v>
       </c>
       <c r="S4">
-        <v>-4.769793978491019E-09</v>
+        <v>-4.769793805500906E-09</v>
       </c>
       <c r="T4">
-        <v>-3.858391520012709E-06</v>
+        <v>-3.858391414336495E-06</v>
       </c>
       <c r="U4">
-        <v>-0.04691174414281411</v>
+        <v>-0.04691174205125444</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.008734348524915935</v>
+        <v>0.008734340859662135</v>
       </c>
       <c r="B5">
-        <v>2.437374890099594</v>
+        <v>2.437372076945581</v>
       </c>
       <c r="C5">
-        <v>0.2346523471806181</v>
+        <v>0.2346522487293826</v>
       </c>
       <c r="D5">
-        <v>0.3035103208061385</v>
+        <v>0.3035101841683719</v>
       </c>
       <c r="E5">
-        <v>9.605177652630223</v>
+        <v>9.605164174128612</v>
       </c>
       <c r="F5">
-        <v>0.6626235613035837</v>
+        <v>0.6626230428007887</v>
       </c>
       <c r="G5">
-        <v>0.00170061716025603</v>
+        <v>0.001700616576662166</v>
       </c>
       <c r="H5">
-        <v>0.0003605778242390076</v>
+        <v>0.0003605777523559499</v>
       </c>
       <c r="I5">
-        <v>0.2072702123676973</v>
+        <v>0.2072694299312911</v>
       </c>
       <c r="J5">
-        <v>4.470497486652739</v>
+        <v>4.470495487797219</v>
       </c>
       <c r="K5">
-        <v>0.8930473979046665</v>
+        <v>0.8930473286840976</v>
       </c>
       <c r="L5">
-        <v>0.1517815692619881</v>
+        <v>0.151781258755992</v>
       </c>
       <c r="M5">
-        <v>0.02672110748379655</v>
+        <v>0.02672101953752175</v>
       </c>
       <c r="N5">
-        <v>1.197643746661888E-06</v>
+        <v>1.19764290298063E-06</v>
       </c>
       <c r="O5">
-        <v>0.003430798808369016</v>
+        <v>0.003430794091493283</v>
       </c>
       <c r="P5">
-        <v>0.004841481951422691</v>
+        <v>0.004841472683371109</v>
       </c>
       <c r="Q5">
-        <v>0.005099574551369348</v>
+        <v>0.005099565004113177</v>
       </c>
       <c r="R5">
-        <v>0.0893245903847989</v>
+        <v>0.08932458025040016</v>
       </c>
       <c r="S5">
-        <v>1.212537887837417E-08</v>
+        <v>1.212536476017565E-08</v>
       </c>
       <c r="T5">
-        <v>6.33553664194581E-06</v>
+        <v>6.335527980714538E-06</v>
       </c>
       <c r="U5">
-        <v>0.1691637574752927</v>
+        <v>0.1691635913432827</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.06467968665247122</v>
+        <v>0.06467968818905938</v>
       </c>
       <c r="B6">
-        <v>14.37138850265493</v>
+        <v>14.37138885159568</v>
       </c>
       <c r="C6">
-        <v>0.5998095748733162</v>
+        <v>0.5998096374960953</v>
       </c>
       <c r="D6">
-        <v>0.7907094049155603</v>
+        <v>0.7907094859859526</v>
       </c>
       <c r="E6">
-        <v>16.21589960960593</v>
+        <v>16.21590567881283</v>
       </c>
       <c r="F6">
-        <v>3.035801233505238</v>
+        <v>3.035801303135283</v>
       </c>
       <c r="G6">
-        <v>0.004492747736939755</v>
+        <v>0.004492747861876448</v>
       </c>
       <c r="H6">
-        <v>0.0003628298970706934</v>
+        <v>0.0003628299078745523</v>
       </c>
       <c r="I6">
-        <v>2.872742428481923</v>
+        <v>2.872742524939211</v>
       </c>
       <c r="J6">
-        <v>12.75296317986616</v>
+        <v>12.75296415901251</v>
       </c>
       <c r="K6">
-        <v>0.2263498315913824</v>
+        <v>0.2263498355877775</v>
       </c>
       <c r="L6">
-        <v>0.1654278291822438</v>
+        <v>0.1654278192532301</v>
       </c>
       <c r="M6">
-        <v>0.2244778072178356</v>
+        <v>0.2244778212987585</v>
       </c>
       <c r="N6">
-        <v>2.977331908813821E-06</v>
+        <v>2.977332000890923E-06</v>
       </c>
       <c r="O6">
-        <v>0.02853249584606332</v>
+        <v>0.02853249655252794</v>
       </c>
       <c r="P6">
-        <v>0.03775583408404545</v>
+        <v>0.03775583516117893</v>
       </c>
       <c r="Q6">
-        <v>0.03834201713219303</v>
+        <v>0.03834201825822851</v>
       </c>
       <c r="R6">
-        <v>0.08411454908595883</v>
+        <v>0.08411455063687487</v>
       </c>
       <c r="S6">
-        <v>6.407110228471589E-08</v>
+        <v>6.407110384955594E-08</v>
       </c>
       <c r="T6">
-        <v>4.393042059096571E-05</v>
+        <v>4.393042190668134E-05</v>
       </c>
       <c r="U6">
-        <v>0.5987484387283568</v>
+        <v>0.5987484610879883</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.009065538583921801</v>
+        <v>0.009065539256294193</v>
       </c>
       <c r="B7">
-        <v>2.639956937932868</v>
+        <v>2.639956977552464</v>
       </c>
       <c r="C7">
-        <v>0.5500091835178633</v>
+        <v>0.5500091951789231</v>
       </c>
       <c r="D7">
-        <v>0.6940489701592382</v>
+        <v>0.6940489852619544</v>
       </c>
       <c r="E7">
-        <v>28.16842519682295</v>
+        <v>28.16842597316836</v>
       </c>
       <c r="F7">
-        <v>0.6763878669033745</v>
+        <v>0.6763878994088663</v>
       </c>
       <c r="G7">
-        <v>0.002606655841983782</v>
+        <v>0.002606655867572961</v>
       </c>
       <c r="H7">
-        <v>0.001546859013164102</v>
+        <v>0.001546859012883548</v>
       </c>
       <c r="I7">
-        <v>0.2526981129263983</v>
+        <v>0.2526980972649752</v>
       </c>
       <c r="J7">
-        <v>7.862763730710505</v>
+        <v>7.862763920002166</v>
       </c>
       <c r="K7">
-        <v>0.7180506445116336</v>
+        <v>0.7180506482703191</v>
       </c>
       <c r="L7">
-        <v>0.5155783187604684</v>
+        <v>0.515578614466828</v>
       </c>
       <c r="M7">
-        <v>0.03982231505471349</v>
+        <v>0.03982231229154641</v>
       </c>
       <c r="N7">
-        <v>3.13456156274911E-06</v>
+        <v>3.134561585849475E-06</v>
       </c>
       <c r="O7">
-        <v>0.003151964401825704</v>
+        <v>0.00315196472453941</v>
       </c>
       <c r="P7">
-        <v>0.005630124856540828</v>
+        <v>0.005630125959672096</v>
       </c>
       <c r="Q7">
-        <v>0.005772680510956492</v>
+        <v>0.005772681646546552</v>
       </c>
       <c r="R7">
-        <v>0.04896439749901695</v>
+        <v>0.04896439741243873</v>
       </c>
       <c r="S7">
-        <v>1.715536812503243E-08</v>
+        <v>1.715537118560885E-08</v>
       </c>
       <c r="T7">
-        <v>7.183405319226565E-06</v>
+        <v>7.183405550944154E-06</v>
       </c>
       <c r="U7">
-        <v>0.1390610331410582</v>
+        <v>0.1390610458101783</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>-0.02902244513307421</v>
+        <v>-0.0290224461305128</v>
       </c>
       <c r="B8">
-        <v>-6.228141669826764</v>
+        <v>-6.228141941834835</v>
       </c>
       <c r="C8">
-        <v>-0.6640835262830334</v>
+        <v>-0.6640835583869251</v>
       </c>
       <c r="D8">
-        <v>-0.8329494927658754</v>
+        <v>-0.832949534791731</v>
       </c>
       <c r="E8">
-        <v>-12.80552399237192</v>
+        <v>-12.80552722375772</v>
       </c>
       <c r="F8">
-        <v>-1.348170301147224</v>
+        <v>-1.348170353370406</v>
       </c>
       <c r="G8">
-        <v>-0.002040920496086067</v>
+        <v>-0.00204092057552958</v>
       </c>
       <c r="H8">
-        <v>-0.0001908085477824724</v>
+        <v>-0.0001908085555157137</v>
       </c>
       <c r="I8">
-        <v>-1.273275908510744</v>
+        <v>-1.273275984187402</v>
       </c>
       <c r="J8">
-        <v>-7.119922240129448</v>
+        <v>-7.119922757113549</v>
       </c>
       <c r="K8">
-        <v>-0.1261886633857312</v>
+        <v>-0.1261886683081244</v>
       </c>
       <c r="L8">
-        <v>-0.1229539519167434</v>
+        <v>-0.1229538735612055</v>
       </c>
       <c r="M8">
-        <v>-0.1164501305758769</v>
+        <v>-0.1164501405452289</v>
       </c>
       <c r="N8">
-        <v>-1.446783613892056E-06</v>
+        <v>-1.446783688861645E-06</v>
       </c>
       <c r="O8">
-        <v>-0.01272392780193932</v>
+        <v>-0.01272392830942574</v>
       </c>
       <c r="P8">
-        <v>-0.01684244690405417</v>
+        <v>-0.01684244776776599</v>
       </c>
       <c r="Q8">
-        <v>-0.01720047751151521</v>
+        <v>-0.01720047840921811</v>
       </c>
       <c r="R8">
-        <v>-0.04159120118035284</v>
+        <v>-0.04159120229769988</v>
       </c>
       <c r="S8">
-        <v>-2.896670072794836E-08</v>
+        <v>-2.896670123813252E-08</v>
       </c>
       <c r="T8">
-        <v>-1.973293146519497E-05</v>
+        <v>-1.97329324090233E-05</v>
       </c>
       <c r="U8">
-        <v>-0.282770973101332</v>
+        <v>-0.2827709898913208</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.01200668516298566</v>
+        <v>0.01200668673882486</v>
       </c>
       <c r="B9">
-        <v>3.587522999407173</v>
+        <v>3.587523326603919</v>
       </c>
       <c r="C9">
-        <v>0.7517799028006659</v>
+        <v>0.7517799767756572</v>
       </c>
       <c r="D9">
-        <v>0.9481718411829365</v>
+        <v>0.94817193760332</v>
       </c>
       <c r="E9">
-        <v>38.26011822113774</v>
+        <v>38.26012540111208</v>
       </c>
       <c r="F9">
-        <v>0.9240501092756841</v>
+        <v>0.9240501856207153</v>
       </c>
       <c r="G9">
-        <v>0.00342106528058504</v>
+        <v>0.003421065464229728</v>
       </c>
       <c r="H9">
-        <v>0.001526492567349671</v>
+        <v>0.001526492577897584</v>
       </c>
       <c r="I9">
-        <v>0.339149586370859</v>
+        <v>0.3391497258207234</v>
       </c>
       <c r="J9">
-        <v>10.44930738810895</v>
+        <v>10.44930855659875</v>
       </c>
       <c r="K9">
-        <v>0.9969392039188814</v>
+        <v>0.9969392269247953</v>
       </c>
       <c r="L9">
-        <v>0.7087070277749796</v>
+        <v>0.7087072117003711</v>
       </c>
       <c r="M9">
-        <v>0.04612454215588969</v>
+        <v>0.04612455811399196</v>
       </c>
       <c r="N9">
-        <v>4.13302152349263E-06</v>
+        <v>4.133021573887957E-06</v>
       </c>
       <c r="O9">
-        <v>0.004170293445580402</v>
+        <v>0.004170294253906861</v>
       </c>
       <c r="P9">
-        <v>0.007611852861348118</v>
+        <v>0.00761185365695146</v>
       </c>
       <c r="Q9">
-        <v>0.007803646658861261</v>
+        <v>0.007803647495172756</v>
       </c>
       <c r="R9">
-        <v>0.06400324153552057</v>
+        <v>0.0640032435380234</v>
       </c>
       <c r="S9">
-        <v>2.323403914176319E-08</v>
+        <v>2.323404239893472E-08</v>
       </c>
       <c r="T9">
-        <v>9.6173564556003E-06</v>
+        <v>9.617358001955598E-06</v>
       </c>
       <c r="U9">
-        <v>0.1875385999793156</v>
+        <v>0.1875386215487839</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>-0.001398397567452204</v>
+        <v>-0.001398397576595982</v>
       </c>
       <c r="B10">
-        <v>-0.7567638633828871</v>
+        <v>-0.7567638647481025</v>
       </c>
       <c r="C10">
-        <v>-0.01833915464969938</v>
+        <v>-0.01833915517384055</v>
       </c>
       <c r="D10">
-        <v>-0.02434508610574479</v>
+        <v>-0.02434508678699202</v>
       </c>
       <c r="E10">
-        <v>-0.1475127353999574</v>
+        <v>-0.1475127756146692</v>
       </c>
       <c r="F10">
-        <v>-0.02691727926384295</v>
+        <v>-0.02691727955324766</v>
       </c>
       <c r="G10">
-        <v>-9.761805740280388E-06</v>
+        <v>-9.761806413185316E-06</v>
       </c>
       <c r="H10">
-        <v>-0.0002333030146856889</v>
+        <v>-0.0002333030147233294</v>
       </c>
       <c r="I10">
-        <v>-0.006488520196118513</v>
+        <v>-0.006488520524100023</v>
       </c>
       <c r="J10">
-        <v>-0.4347469414058653</v>
+        <v>-0.434746949837604</v>
       </c>
       <c r="K10">
-        <v>-0.001827152431602088</v>
+        <v>-0.00182715234069474</v>
       </c>
       <c r="L10">
-        <v>-0.0007984169472072378</v>
+        <v>-0.0007984129635745616</v>
       </c>
       <c r="M10">
-        <v>-0.002098156361702724</v>
+        <v>-0.002098156486964118</v>
       </c>
       <c r="N10">
-        <v>-1.167375885918831E-05</v>
+        <v>-1.167375885949764E-05</v>
       </c>
       <c r="O10">
-        <v>-0.0004388303958136228</v>
+        <v>-0.0004388303984627348</v>
       </c>
       <c r="P10">
-        <v>-0.003158334704812233</v>
+        <v>-0.003158334711729346</v>
       </c>
       <c r="Q10">
-        <v>-0.00316901230765951</v>
+        <v>-0.00316901231497264</v>
       </c>
       <c r="R10">
-        <v>-0.00212198004946034</v>
+        <v>-0.002121980053330193</v>
       </c>
       <c r="S10">
-        <v>-2.854795981879137E-09</v>
+        <v>-2.854795954566859E-09</v>
       </c>
       <c r="T10">
-        <v>-1.113230956882032E-06</v>
+        <v>-1.113230962838452E-06</v>
       </c>
       <c r="U10">
-        <v>-0.009696643752700358</v>
+        <v>-0.009696643893774278</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.002954330198243679</v>
+        <v>0.002954329665701714</v>
       </c>
       <c r="B11">
-        <v>0.9296644499975416</v>
+        <v>0.929664228187789</v>
       </c>
       <c r="C11">
-        <v>0.0502675812572363</v>
+        <v>0.05026758186708526</v>
       </c>
       <c r="D11">
-        <v>0.0659620686581166</v>
+        <v>0.0659620686070045</v>
       </c>
       <c r="E11">
-        <v>4.048750125627511</v>
+        <v>4.048749774086283</v>
       </c>
       <c r="F11">
-        <v>0.2642031007111815</v>
+        <v>0.2642030600280422</v>
       </c>
       <c r="G11">
-        <v>0.0005412411751467728</v>
+        <v>0.0005412411396062208</v>
       </c>
       <c r="H11">
-        <v>0.0005718955871740697</v>
+        <v>0.0005718955818897147</v>
       </c>
       <c r="I11">
-        <v>0.05631647927513334</v>
+        <v>0.05631641628495698</v>
       </c>
       <c r="J11">
-        <v>1.143238273991406</v>
+        <v>1.143238243849836</v>
       </c>
       <c r="K11">
-        <v>0.09171312769961805</v>
+        <v>0.09171312243603102</v>
       </c>
       <c r="L11">
-        <v>0.4061157273253596</v>
+        <v>0.40611586303368</v>
       </c>
       <c r="M11">
-        <v>0.01086214320577066</v>
+        <v>0.01086213692769937</v>
       </c>
       <c r="N11">
-        <v>8.925568960186104E-07</v>
+        <v>8.925568343633613E-07</v>
       </c>
       <c r="O11">
-        <v>0.001149453905507051</v>
+        <v>0.001149453556420886</v>
       </c>
       <c r="P11">
-        <v>0.002928291069917708</v>
+        <v>0.002928290368302688</v>
       </c>
       <c r="Q11">
-        <v>0.003045221173868066</v>
+        <v>0.003045220453904165</v>
       </c>
       <c r="R11">
-        <v>0.01506821622202468</v>
+        <v>0.01506821541196152</v>
       </c>
       <c r="S11">
-        <v>7.676074486544876E-09</v>
+        <v>7.676074836837611E-09</v>
       </c>
       <c r="T11">
-        <v>2.070234352504108E-06</v>
+        <v>2.070233708681082E-06</v>
       </c>
       <c r="U11">
-        <v>0.08881798766048045</v>
+        <v>0.08881797465480083</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.006306595012885451</v>
+        <v>0.006306595236839687</v>
       </c>
       <c r="B12">
-        <v>2.380157087520911</v>
+        <v>2.380157215782536</v>
       </c>
       <c r="C12">
-        <v>0.0547791172071533</v>
+        <v>0.05477911648590086</v>
       </c>
       <c r="D12">
-        <v>0.07305765473111839</v>
+        <v>0.07305765415951293</v>
       </c>
       <c r="E12">
-        <v>5.040003300167782</v>
+        <v>5.040003250992622</v>
       </c>
       <c r="F12">
-        <v>1.71278916474513</v>
+        <v>1.712789190724254</v>
       </c>
       <c r="G12">
-        <v>0.0003918421356702562</v>
+        <v>0.0003918421560048436</v>
       </c>
       <c r="H12">
-        <v>3.966915085715335E-05</v>
+        <v>3.966915485629068E-05</v>
       </c>
       <c r="I12">
-        <v>0.08680592575682615</v>
+        <v>0.08680596166828324</v>
       </c>
       <c r="J12">
-        <v>1.158757525119644</v>
+        <v>1.158757511050799</v>
       </c>
       <c r="K12">
-        <v>0.04720858401047223</v>
+        <v>0.04720858727387571</v>
       </c>
       <c r="L12">
-        <v>0.01860273162374342</v>
+        <v>0.0186027216986032</v>
       </c>
       <c r="M12">
-        <v>0.01829508428483276</v>
+        <v>0.01829509201052721</v>
       </c>
       <c r="N12">
-        <v>2.736037701564103E-07</v>
+        <v>2.73603806870197E-07</v>
       </c>
       <c r="O12">
-        <v>0.002394198255982694</v>
+        <v>0.002394198415674675</v>
       </c>
       <c r="P12">
-        <v>0.004936108986923933</v>
+        <v>0.004936109242834079</v>
       </c>
       <c r="Q12">
-        <v>0.005285701937512335</v>
+        <v>0.005285702213215521</v>
       </c>
       <c r="R12">
-        <v>0.0175024832420405</v>
+        <v>0.01750248384934102</v>
       </c>
       <c r="S12">
-        <v>9.216777491832464E-09</v>
+        <v>9.216777858484652E-09</v>
       </c>
       <c r="T12">
-        <v>4.309032799659242E-06</v>
+        <v>4.309033136720788E-06</v>
       </c>
       <c r="U12">
-        <v>0.6779803034658904</v>
+        <v>0.6779803126705778</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.02514339545881743</v>
+        <v>0.02514339725123476</v>
       </c>
       <c r="B13">
-        <v>8.244467620042853</v>
+        <v>8.244468268863411</v>
       </c>
       <c r="C13">
-        <v>0.286612441694062</v>
+        <v>0.2866124670421915</v>
       </c>
       <c r="D13">
-        <v>0.3723967951246626</v>
+        <v>0.3723968297400803</v>
       </c>
       <c r="E13">
-        <v>25.68274083316533</v>
+        <v>25.68274398611765</v>
       </c>
       <c r="F13">
-        <v>4.03125874798906</v>
+        <v>4.031258870933309</v>
       </c>
       <c r="G13">
-        <v>0.0022889725822386</v>
+        <v>0.002288972718296498</v>
       </c>
       <c r="H13">
-        <v>0.0003802853129595604</v>
+        <v>0.0003802853304100112</v>
       </c>
       <c r="I13">
-        <v>0.3771829243647376</v>
+        <v>0.3771831060281475</v>
       </c>
       <c r="J13">
-        <v>7.316895761104808</v>
+        <v>7.316896228859377</v>
       </c>
       <c r="K13">
-        <v>0.3946876991712732</v>
+        <v>0.3946877140630348</v>
       </c>
       <c r="L13">
-        <v>0.1061868277298861</v>
+        <v>0.1061868361859628</v>
       </c>
       <c r="M13">
-        <v>0.1953829601528564</v>
+        <v>0.1953829828129774</v>
       </c>
       <c r="N13">
-        <v>2.270205908860349E-06</v>
+        <v>2.270206099408895E-06</v>
       </c>
       <c r="O13">
-        <v>0.01225116978403859</v>
+        <v>0.01225117086778854</v>
       </c>
       <c r="P13">
-        <v>0.01846342220407379</v>
+        <v>0.01846342430101792</v>
       </c>
       <c r="Q13">
-        <v>0.01994378619141416</v>
+        <v>0.01994378836352057</v>
       </c>
       <c r="R13">
-        <v>0.1342957584426561</v>
+        <v>0.1342957609305541</v>
       </c>
       <c r="S13">
-        <v>3.400264937368363E-08</v>
+        <v>3.400265207423927E-08</v>
       </c>
       <c r="T13">
-        <v>1.858819580279344E-05</v>
+        <v>1.858819780359754E-05</v>
       </c>
       <c r="U13">
-        <v>1.440299992822659</v>
+        <v>1.440300032443066</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.0005067527158302867</v>
+        <v>0.0005067527149824653</v>
       </c>
       <c r="B14">
-        <v>0.2090725109344823</v>
+        <v>0.2090725134200254</v>
       </c>
       <c r="C14">
-        <v>0.01296366967031666</v>
+        <v>0.01296367012817184</v>
       </c>
       <c r="D14">
-        <v>0.01690435052064548</v>
+        <v>0.01690435115468312</v>
       </c>
       <c r="E14">
-        <v>0.5827243569146733</v>
+        <v>0.5827244156979736</v>
       </c>
       <c r="F14">
-        <v>0.0550480169845638</v>
+        <v>0.05504801728675607</v>
       </c>
       <c r="G14">
-        <v>0.0001737504506551427</v>
+        <v>0.0001737504529076016</v>
       </c>
       <c r="H14">
-        <v>1.504736298306767E-05</v>
+        <v>1.504736297615741E-05</v>
       </c>
       <c r="I14">
-        <v>0.01732092457981292</v>
+        <v>0.01732092679735327</v>
       </c>
       <c r="J14">
-        <v>0.3091297112805643</v>
+        <v>0.3091297210410888</v>
       </c>
       <c r="K14">
-        <v>0.06332675963854625</v>
+        <v>0.06332676015499417</v>
       </c>
       <c r="L14">
-        <v>0.0460938599997542</v>
+        <v>0.04609385903153675</v>
       </c>
       <c r="M14">
-        <v>0.001418518233373915</v>
+        <v>0.001418518221049697</v>
       </c>
       <c r="N14">
-        <v>2.385586339159855E-07</v>
+        <v>2.385586321200083E-07</v>
       </c>
       <c r="O14">
-        <v>0.0001724650672955013</v>
+        <v>0.000172465068315016</v>
       </c>
       <c r="P14">
-        <v>0.0004212607876593356</v>
+        <v>0.000421260758174157</v>
       </c>
       <c r="Q14">
-        <v>0.0004307690226090304</v>
+        <v>0.0004307689928530755</v>
       </c>
       <c r="R14">
-        <v>0.003780097128062932</v>
+        <v>0.003780097145259537</v>
       </c>
       <c r="S14">
-        <v>1.291043701133235E-09</v>
+        <v>1.291043698044679E-09</v>
       </c>
       <c r="T14">
-        <v>4.398194341474022E-07</v>
+        <v>4.398194466935174E-07</v>
       </c>
       <c r="U14">
-        <v>0.01027810296563046</v>
+        <v>0.01027810281597463</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.0001116860921782589</v>
+        <v>0.0001116860862277967</v>
       </c>
       <c r="B15">
-        <v>0.03502601346048988</v>
+        <v>0.03502601111151022</v>
       </c>
       <c r="C15">
-        <v>0.001836060661660842</v>
+        <v>0.001836060789978427</v>
       </c>
       <c r="D15">
-        <v>0.002400947574801875</v>
+        <v>0.00240094772761629</v>
       </c>
       <c r="E15">
-        <v>0.1765880601251559</v>
+        <v>0.1765880650741698</v>
       </c>
       <c r="F15">
-        <v>0.009995815786370411</v>
+        <v>0.009995815312799951</v>
       </c>
       <c r="G15">
-        <v>1.081273891202696E-05</v>
+        <v>1.08127387541866E-05</v>
       </c>
       <c r="H15">
-        <v>1.173016348370108E-06</v>
+        <v>1.173016290161031E-06</v>
       </c>
       <c r="I15">
-        <v>0.001591696223802578</v>
+        <v>0.001591695607561782</v>
       </c>
       <c r="J15">
-        <v>0.04413418210600928</v>
+        <v>0.04413418363356798</v>
       </c>
       <c r="K15">
-        <v>0.002933684913003902</v>
+        <v>0.002933684849426719</v>
       </c>
       <c r="L15">
-        <v>0.02273867587968219</v>
+        <v>0.02273867568378315</v>
       </c>
       <c r="M15">
-        <v>0.0002052876767694939</v>
+        <v>0.0002052876122793655</v>
       </c>
       <c r="N15">
-        <v>3.355108724114039E-08</v>
+        <v>3.355108630556226E-08</v>
       </c>
       <c r="O15">
-        <v>4.86815931339889E-05</v>
+        <v>4.868158871704831E-05</v>
       </c>
       <c r="P15">
-        <v>0.0001277725531130495</v>
+        <v>0.0001277725399341776</v>
       </c>
       <c r="Q15">
-        <v>0.0001323719603720522</v>
+        <v>0.0001323719469104011</v>
       </c>
       <c r="R15">
-        <v>0.0002357345512074528</v>
+        <v>0.0002357345447522555</v>
       </c>
       <c r="S15">
-        <v>3.512564005962409E-10</v>
+        <v>3.512563893366829E-10</v>
       </c>
       <c r="T15">
-        <v>7.913158220438019E-08</v>
+        <v>7.913157552170069E-08</v>
       </c>
       <c r="U15">
-        <v>0.003053063230511857</v>
+        <v>0.003053063059815551</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.008308025775666559</v>
+        <v>0.008308025369612899</v>
       </c>
       <c r="B16">
-        <v>2.99499544574799</v>
+        <v>2.994995278899516</v>
       </c>
       <c r="C16">
-        <v>0.08132472739911115</v>
+        <v>0.08132472641244891</v>
       </c>
       <c r="D16">
-        <v>0.108126311951682</v>
+        <v>0.1081263100543303</v>
       </c>
       <c r="E16">
-        <v>6.12618922581112</v>
+        <v>6.126188828088921</v>
       </c>
       <c r="F16">
-        <v>1.844189618789033</v>
+        <v>1.844189588455295</v>
       </c>
       <c r="G16">
-        <v>0.0007933755284034286</v>
+        <v>0.0007933755008761375</v>
       </c>
       <c r="H16">
-        <v>0.0001081595968620237</v>
+        <v>0.0001081595930044334</v>
       </c>
       <c r="I16">
-        <v>0.1244992539796185</v>
+        <v>0.1244992102014287</v>
       </c>
       <c r="J16">
-        <v>1.881570994673283</v>
+        <v>1.881570947806602</v>
       </c>
       <c r="K16">
-        <v>0.2459796784319339</v>
+        <v>0.2459796747560443</v>
       </c>
       <c r="L16">
-        <v>0.08189164541588138</v>
+        <v>0.08189146935742027</v>
       </c>
       <c r="M16">
-        <v>0.01995815032290478</v>
+        <v>0.01995814597642281</v>
       </c>
       <c r="N16">
-        <v>5.533023908194313E-07</v>
+        <v>5.533023384965088E-07</v>
       </c>
       <c r="O16">
-        <v>0.003524271908703368</v>
+        <v>0.00352427163756638</v>
       </c>
       <c r="P16">
-        <v>0.006931818438470975</v>
+        <v>0.006931817852379354</v>
       </c>
       <c r="Q16">
-        <v>0.007618644162634151</v>
+        <v>0.007618643562991481</v>
       </c>
       <c r="R16">
-        <v>0.04827422236131556</v>
+        <v>0.04827422182401589</v>
       </c>
       <c r="S16">
-        <v>1.252849985924523E-08</v>
+        <v>1.252849764187779E-08</v>
       </c>
       <c r="T16">
-        <v>5.951745547265991E-06</v>
+        <v>5.951745064146919E-06</v>
       </c>
       <c r="U16">
-        <v>0.6974983685286213</v>
+        <v>0.6974983586834637</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0002716546305790783</v>
+        <v>-0.0002716546458705569</v>
       </c>
       <c r="B17">
-        <v>-2.372984744850147</v>
+        <v>-2.372984746623089</v>
       </c>
       <c r="C17">
-        <v>-0.1201199381906609</v>
+        <v>-0.1201199389711935</v>
       </c>
       <c r="D17">
-        <v>-0.1599610751344978</v>
+        <v>-0.1599610761345031</v>
       </c>
       <c r="E17">
-        <v>-1.265781129118042</v>
+        <v>-1.265781187461379</v>
       </c>
       <c r="F17">
-        <v>-0.00790346414950048</v>
+        <v>-0.007903464898750512</v>
       </c>
       <c r="G17">
-        <v>-5.236323382613483E-06</v>
+        <v>-5.236324375749114E-06</v>
       </c>
       <c r="H17">
-        <v>-2.145683909132518E-05</v>
+        <v>-2.145683915684762E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02399118991750112</v>
+        <v>-0.0239911903496563</v>
       </c>
       <c r="J17">
-        <v>-2.349946973179552</v>
+        <v>-2.349946984094538</v>
       </c>
       <c r="K17">
-        <v>-0.001044696260136879</v>
+        <v>-0.001044696270514632</v>
       </c>
       <c r="L17">
-        <v>-0.0005566561905239766</v>
+        <v>-0.0005566563284724973</v>
       </c>
       <c r="M17">
-        <v>-0.001265723108830781</v>
+        <v>-0.001265723219046676</v>
       </c>
       <c r="N17">
-        <v>-1.017244141382037E-06</v>
+        <v>-1.017244142163869E-06</v>
       </c>
       <c r="O17">
-        <v>-9.17831254060559E-05</v>
+        <v>-9.17831311897834E-05</v>
       </c>
       <c r="P17">
-        <v>-0.0006027119706078978</v>
+        <v>-0.000602711988547473</v>
       </c>
       <c r="Q17">
-        <v>-0.0006068256903795118</v>
+        <v>-0.0006068257096138355</v>
       </c>
       <c r="R17">
-        <v>-0.003723410337725462</v>
+        <v>-0.003723410346838625</v>
       </c>
       <c r="S17">
-        <v>-6.90328102402622E-09</v>
+        <v>-6.90328103791527E-09</v>
       </c>
       <c r="T17">
-        <v>-2.884956379724153E-06</v>
+        <v>-2.884956388964301E-06</v>
       </c>
       <c r="U17">
-        <v>-0.002983724558823628</v>
+        <v>-0.002983724903087866</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>0.001472941895877712</v>
+        <v>0.001472941101850933</v>
       </c>
       <c r="B18">
-        <v>0.4466068055809291</v>
+        <v>0.4466065025127511</v>
       </c>
       <c r="C18">
-        <v>0.06155749437446659</v>
+        <v>0.06155748564603936</v>
       </c>
       <c r="D18">
-        <v>0.08070113138108936</v>
+        <v>0.08070111907503978</v>
       </c>
       <c r="E18">
-        <v>4.132010329828975</v>
+        <v>4.132009022054275</v>
       </c>
       <c r="F18">
-        <v>0.1258350355799078</v>
+        <v>0.1258349799449048</v>
       </c>
       <c r="G18">
-        <v>0.000977663612770085</v>
+        <v>0.0009776635533561659</v>
       </c>
       <c r="H18">
-        <v>8.922302584726668E-05</v>
+        <v>8.922301848311358E-05</v>
       </c>
       <c r="I18">
-        <v>0.07847873292151449</v>
+        <v>0.0784786507771721</v>
       </c>
       <c r="J18">
-        <v>1.160180127364004</v>
+        <v>1.160179939103701</v>
       </c>
       <c r="K18">
-        <v>0.1157339477518437</v>
+        <v>0.115733940768058</v>
       </c>
       <c r="L18">
-        <v>0.03126211795617966</v>
+        <v>0.0312620984081712</v>
       </c>
       <c r="M18">
-        <v>0.01528680274328042</v>
+        <v>0.01528679400147988</v>
       </c>
       <c r="N18">
-        <v>2.443636063670039E-07</v>
+        <v>2.443635173937329E-07</v>
       </c>
       <c r="O18">
-        <v>0.000705924801015678</v>
+        <v>0.000705924303014605</v>
       </c>
       <c r="P18">
-        <v>0.001177074650637779</v>
+        <v>0.001177073657395439</v>
       </c>
       <c r="Q18">
-        <v>0.001227075503796825</v>
+        <v>0.001227074480079298</v>
       </c>
       <c r="R18">
-        <v>0.004837597874886074</v>
+        <v>0.00483759682574164</v>
       </c>
       <c r="S18">
-        <v>2.752645512730384E-09</v>
+        <v>2.752644128033007E-09</v>
       </c>
       <c r="T18">
-        <v>1.396138057909467E-06</v>
+        <v>1.396137144608307E-06</v>
       </c>
       <c r="U18">
-        <v>0.0399121002782124</v>
+        <v>0.03991208246976201</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>0.0001153209425734963</v>
+        <v>0.0001153209429412072</v>
       </c>
       <c r="B19">
-        <v>0.02510122913332753</v>
+        <v>0.02510122914043406</v>
       </c>
       <c r="C19">
-        <v>0.001026321755897338</v>
+        <v>0.001026321784532111</v>
       </c>
       <c r="D19">
-        <v>0.001120012171112057</v>
+        <v>0.001120012207390612</v>
       </c>
       <c r="E19">
-        <v>0.06055688768700671</v>
+        <v>0.06055688996487388</v>
       </c>
       <c r="F19">
-        <v>0.01378805925452841</v>
+        <v>0.01378805925765367</v>
       </c>
       <c r="G19">
-        <v>1.014752286656458E-05</v>
+        <v>1.014752290659959E-05</v>
       </c>
       <c r="H19">
-        <v>4.403598408558472E-05</v>
+        <v>4.403598408691328E-05</v>
       </c>
       <c r="I19">
-        <v>0.001051601486861122</v>
+        <v>0.00105160150462641</v>
       </c>
       <c r="J19">
-        <v>0.02081668036432239</v>
+        <v>0.0208166807838838</v>
       </c>
       <c r="K19">
-        <v>0.001476698358344462</v>
+        <v>0.00147669835970104</v>
       </c>
       <c r="L19">
-        <v>0.006459781517605026</v>
+        <v>0.006459782512919626</v>
       </c>
       <c r="M19">
-        <v>0.000162678257466636</v>
+        <v>0.0001626782614533379</v>
       </c>
       <c r="N19">
-        <v>5.453074598138386E-08</v>
+        <v>5.453074596776958E-08</v>
       </c>
       <c r="O19">
-        <v>3.500479423537927E-05</v>
+        <v>3.500479432874135E-05</v>
       </c>
       <c r="P19">
-        <v>0.0004227994058625091</v>
+        <v>0.000422799405641998</v>
       </c>
       <c r="Q19">
-        <v>0.0006490091932749123</v>
+        <v>0.0006490091930446818</v>
       </c>
       <c r="R19">
-        <v>0.004768146427867108</v>
+        <v>0.004768146428203335</v>
       </c>
       <c r="S19">
-        <v>2.44052484177347E-10</v>
+        <v>2.440524931570051E-10</v>
       </c>
       <c r="T19">
-        <v>6.454417725380003E-08</v>
+        <v>6.45441774741375E-08</v>
       </c>
       <c r="U19">
-        <v>0.005234764335473355</v>
+        <v>0.005234764335146364</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>-0.0008081265000343452</v>
+        <v>-0.0008081256213375779</v>
       </c>
       <c r="B20">
-        <v>-0.2295373660937255</v>
+        <v>-0.2295370339413198</v>
       </c>
       <c r="C20">
-        <v>-0.05159534224505226</v>
+        <v>-0.05159533201386016</v>
       </c>
       <c r="D20">
-        <v>-0.06665592911897686</v>
+        <v>-0.06665591477809449</v>
       </c>
       <c r="E20">
-        <v>-1.410460121731641</v>
+        <v>-1.410458631573108</v>
       </c>
       <c r="F20">
-        <v>-0.05831111796008855</v>
+        <v>-0.05831105713077829</v>
       </c>
       <c r="G20">
-        <v>-0.0001822553864798526</v>
+        <v>-0.0001822553206184856</v>
       </c>
       <c r="H20">
-        <v>-4.752512935397977E-05</v>
+        <v>-4.752512125871743E-05</v>
       </c>
       <c r="I20">
-        <v>-0.01869715386832569</v>
+        <v>-0.01869706351799916</v>
       </c>
       <c r="J20">
-        <v>-0.9231012068096072</v>
+        <v>-0.9231009905618006</v>
       </c>
       <c r="K20">
-        <v>-0.1039225954359349</v>
+        <v>-0.1039225878074839</v>
       </c>
       <c r="L20">
-        <v>-0.01063923052776026</v>
+        <v>-0.01063921192866892</v>
       </c>
       <c r="M20">
-        <v>-0.004854647618946889</v>
+        <v>-0.004854637961184707</v>
       </c>
       <c r="N20">
-        <v>-1.438795709126352E-07</v>
+        <v>-1.438794734919812E-07</v>
       </c>
       <c r="O20">
-        <v>-0.000336430747105908</v>
+        <v>-0.0003364301990343496</v>
       </c>
       <c r="P20">
-        <v>-0.0004101379630106191</v>
+        <v>-0.0004101368749954511</v>
       </c>
       <c r="Q20">
-        <v>-0.0004252006805676734</v>
+        <v>-0.0004251995595970589</v>
       </c>
       <c r="R20">
-        <v>-0.002658582977084518</v>
+        <v>-0.002658581823468703</v>
       </c>
       <c r="S20">
-        <v>-1.14432728106841E-09</v>
+        <v>-1.144325785195167E-09</v>
       </c>
       <c r="T20">
-        <v>-7.042087024677774E-07</v>
+        <v>-7.042076967485058E-07</v>
       </c>
       <c r="U20">
-        <v>-0.01431641540392457</v>
+        <v>-0.01431639596254863</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>-0.001668242723736179</v>
+        <v>-0.001668241045979745</v>
       </c>
       <c r="B21">
-        <v>-0.6162118533830964</v>
+        <v>-0.616211225511066</v>
       </c>
       <c r="C21">
-        <v>-0.1278517768861608</v>
+        <v>-0.1278517562855892</v>
       </c>
       <c r="D21">
-        <v>-0.1657905766219277</v>
+        <v>-0.1657905479013216</v>
       </c>
       <c r="E21">
-        <v>-2.682004391711237</v>
+        <v>-2.682001470470914</v>
       </c>
       <c r="F21">
-        <v>-0.1675366154205263</v>
+        <v>-0.16753650004121</v>
       </c>
       <c r="G21">
-        <v>-0.0003625034917202129</v>
+        <v>-0.0003625033655318046</v>
       </c>
       <c r="H21">
-        <v>-0.0001240375864018446</v>
+        <v>-0.0001240375710407161</v>
       </c>
       <c r="I21">
-        <v>-0.03917146134764309</v>
+        <v>-0.03917129103108429</v>
       </c>
       <c r="J21">
-        <v>-2.36461768251603</v>
+        <v>-2.364617254721314</v>
       </c>
       <c r="K21">
-        <v>-0.2019829565381127</v>
+        <v>-0.2019829419543394</v>
       </c>
       <c r="L21">
-        <v>-0.01813378306977675</v>
+        <v>-0.01813379075444897</v>
       </c>
       <c r="M21">
-        <v>-0.007400243855588317</v>
+        <v>-0.00740022558096458</v>
       </c>
       <c r="N21">
-        <v>-3.071098701502581E-07</v>
+        <v>-3.071096859288367E-07</v>
       </c>
       <c r="O21">
-        <v>-0.0006888502132183247</v>
+        <v>-0.0006888491726969244</v>
       </c>
       <c r="P21">
-        <v>-0.001001551527362645</v>
+        <v>-0.001001549470460216</v>
       </c>
       <c r="Q21">
-        <v>-0.001052346481499194</v>
+        <v>-0.001052344361554464</v>
       </c>
       <c r="R21">
-        <v>-0.005979196401797973</v>
+        <v>-0.005979194214762497</v>
       </c>
       <c r="S21">
-        <v>-2.755513075017982E-09</v>
+        <v>-2.755510620615474E-09</v>
       </c>
       <c r="T21">
-        <v>-1.690064382106214E-06</v>
+        <v>-1.690062475382615E-06</v>
       </c>
       <c r="U21">
-        <v>-0.04627876048537566</v>
+        <v>-0.04627872356975839</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22">
-        <v>0.002840721738137089</v>
+        <v>0.002840721975621178</v>
       </c>
       <c r="B22">
-        <v>0.7639651323079923</v>
+        <v>0.7639652159717725</v>
       </c>
       <c r="C22">
-        <v>0.04502625703059063</v>
+        <v>0.04502626120334711</v>
       </c>
       <c r="D22">
-        <v>0.05861454448249982</v>
+        <v>0.05861455011652688</v>
       </c>
       <c r="E22">
-        <v>3.677716396348028</v>
+        <v>3.677716882128334</v>
       </c>
       <c r="F22">
-        <v>0.197014295243576</v>
+        <v>0.197014310951736</v>
       </c>
       <c r="G22">
-        <v>0.0002860356515898997</v>
+        <v>0.0002860356701822075</v>
       </c>
       <c r="H22">
-        <v>3.820379847911068E-05</v>
+        <v>3.820380064607591E-05</v>
       </c>
       <c r="I22">
-        <v>0.03842833631084382</v>
+        <v>0.03842836054627652</v>
       </c>
       <c r="J22">
-        <v>0.7911679009449383</v>
+        <v>0.7911679754582204</v>
       </c>
       <c r="K22">
-        <v>0.08027073757577396</v>
+        <v>0.08027073953637259</v>
       </c>
       <c r="L22">
-        <v>0.01617316143210727</v>
+        <v>0.01617312538416893</v>
       </c>
       <c r="M22">
-        <v>0.008298706117601185</v>
+        <v>0.008298709085228008</v>
       </c>
       <c r="N22">
-        <v>3.009179191023461E-07</v>
+        <v>3.009179424279933E-07</v>
       </c>
       <c r="O22">
-        <v>0.001561111736721922</v>
+        <v>0.001561111877336006</v>
       </c>
       <c r="P22">
-        <v>0.002422870104931979</v>
+        <v>0.002422870367005949</v>
       </c>
       <c r="Q22">
-        <v>0.002485676992414794</v>
+        <v>0.002485677263810952</v>
       </c>
       <c r="R22">
-        <v>0.005126486675025552</v>
+        <v>0.005126486995124017</v>
       </c>
       <c r="S22">
-        <v>3.476906383143128E-09</v>
+        <v>3.47690640428757E-09</v>
       </c>
       <c r="T22">
-        <v>2.012499590039987E-06</v>
+        <v>2.012499854499303E-06</v>
       </c>
       <c r="U22">
-        <v>0.05049445719980161</v>
+        <v>0.05049446223427601</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23">
-        <v>0.000305352526075146</v>
+        <v>0.0003053525275946704</v>
       </c>
       <c r="B23">
-        <v>0.1884542976172318</v>
+        <v>0.1884542965282995</v>
       </c>
       <c r="C23">
-        <v>0.004663679499933612</v>
+        <v>0.004663679798656372</v>
       </c>
       <c r="D23">
-        <v>0.008280256781735315</v>
+        <v>0.008280257159571694</v>
       </c>
       <c r="E23">
-        <v>3.590255307574868</v>
+        <v>3.590255328002601</v>
       </c>
       <c r="F23">
-        <v>0.05929106169358203</v>
+        <v>0.05929106152924772</v>
       </c>
       <c r="G23">
-        <v>1.336079649725767E-05</v>
+        <v>1.336079666051763E-05</v>
       </c>
       <c r="H23">
-        <v>5.282552518773147E-06</v>
+        <v>5.282552516104408E-06</v>
       </c>
       <c r="I23">
-        <v>0.009731776631985324</v>
+        <v>0.009731776416104433</v>
       </c>
       <c r="J23">
-        <v>0.1466184943003523</v>
+        <v>0.1466184983295061</v>
       </c>
       <c r="K23">
-        <v>0.003031429504115671</v>
+        <v>0.003031429464305571</v>
       </c>
       <c r="L23">
-        <v>0.007092274451316292</v>
+        <v>0.007092275357565391</v>
       </c>
       <c r="M23">
-        <v>0.002112406802418051</v>
+        <v>0.002112406817308516</v>
       </c>
       <c r="N23">
-        <v>8.610568478193311E-08</v>
+        <v>8.61056844863912E-08</v>
       </c>
       <c r="O23">
-        <v>0.0001495603505061764</v>
+        <v>0.0001495603498031566</v>
       </c>
       <c r="P23">
-        <v>0.0003475468001527535</v>
+        <v>0.0003475467980104457</v>
       </c>
       <c r="Q23">
-        <v>0.0003870232756511987</v>
+        <v>0.000387023273498652</v>
       </c>
       <c r="R23">
-        <v>0.0003044000567862323</v>
+        <v>0.0003044000561020778</v>
       </c>
       <c r="S23">
-        <v>7.593929758121958E-10</v>
+        <v>7.593929814406643E-10</v>
       </c>
       <c r="T23">
-        <v>3.356889712237757E-07</v>
+        <v>3.356889699683018E-07</v>
       </c>
       <c r="U23">
-        <v>0.02561864774159915</v>
+        <v>0.02561864770303031</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24">
-        <v>0.0001987390739344664</v>
+        <v>0.0001987390843478038</v>
       </c>
       <c r="B24">
-        <v>0.01638158858840194</v>
+        <v>0.01638159337844064</v>
       </c>
       <c r="C24">
-        <v>0.0002372668504647263</v>
+        <v>0.0002372668790329619</v>
       </c>
       <c r="D24">
-        <v>0.0003729307766910578</v>
+        <v>0.0003729308289485802</v>
       </c>
       <c r="E24">
-        <v>0.1010706116093661</v>
+        <v>0.101070621311952</v>
       </c>
       <c r="F24">
-        <v>0.004679762133218307</v>
+        <v>0.004679763011068889</v>
       </c>
       <c r="G24">
-        <v>9.647175374382286E-07</v>
+        <v>9.64718299626365E-07</v>
       </c>
       <c r="H24">
-        <v>3.712469166798844E-07</v>
+        <v>3.7124702898015E-07</v>
       </c>
       <c r="I24">
-        <v>0.0009929663434815898</v>
+        <v>0.0009929675931354899</v>
       </c>
       <c r="J24">
-        <v>0.005452345841410588</v>
+        <v>0.005452347027663387</v>
       </c>
       <c r="K24">
-        <v>0.0001450796378328024</v>
+        <v>0.000145079733344961</v>
       </c>
       <c r="L24">
-        <v>0.0002847320842750255</v>
+        <v>0.0002847349905737257</v>
       </c>
       <c r="M24">
-        <v>0.000167310179245446</v>
+        <v>0.0001673103214456696</v>
       </c>
       <c r="N24">
-        <v>7.189255239999915E-09</v>
+        <v>7.189256577697475E-09</v>
       </c>
       <c r="O24">
-        <v>6.630470052678837E-05</v>
+        <v>6.630470781470491E-05</v>
       </c>
       <c r="P24">
-        <v>0.0002234007536051897</v>
+        <v>0.0002234007691310949</v>
       </c>
       <c r="Q24">
-        <v>0.0002271348892329562</v>
+        <v>0.0002271349055787365</v>
       </c>
       <c r="R24">
-        <v>2.011050490451779E-05</v>
+        <v>2.011052011621604E-05</v>
       </c>
       <c r="S24">
-        <v>1.218366489952184E-10</v>
+        <v>1.218366931705575E-10</v>
       </c>
       <c r="T24">
-        <v>6.165441143057231E-08</v>
+        <v>6.165442492655605E-08</v>
       </c>
       <c r="U24">
-        <v>0.002024188082936331</v>
+        <v>0.002024188367345912</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25">
-        <v>-0.001960372386763966</v>
+        <v>-0.001960372831447935</v>
       </c>
       <c r="B25">
-        <v>-0.4456404818454812</v>
+        <v>-0.445640645529235</v>
       </c>
       <c r="C25">
-        <v>-0.04537182800704605</v>
+        <v>-0.04537183426198457</v>
       </c>
       <c r="D25">
-        <v>-0.06015808160623956</v>
+        <v>-0.06015809022408067</v>
       </c>
       <c r="E25">
-        <v>-1.512129467189845</v>
+        <v>-1.512130294368603</v>
       </c>
       <c r="F25">
-        <v>-0.1105926372637829</v>
+        <v>-0.1105926673569479</v>
       </c>
       <c r="G25">
-        <v>-0.0003596275573939944</v>
+        <v>-0.0003596275915903014</v>
       </c>
       <c r="H25">
-        <v>-0.002855970012360255</v>
+        <v>-0.002855970016443299</v>
       </c>
       <c r="I25">
-        <v>-0.02563738698795978</v>
+        <v>-0.02563743266230989</v>
       </c>
       <c r="J25">
-        <v>-1.17187336273718</v>
+        <v>-1.171873485923602</v>
       </c>
       <c r="K25">
-        <v>-0.04337626359627039</v>
+        <v>-0.04337626741244103</v>
       </c>
       <c r="L25">
-        <v>-0.01734705330524461</v>
+        <v>-0.01734704457007449</v>
       </c>
       <c r="M25">
-        <v>-0.004300231126157792</v>
+        <v>-0.004300236200478071</v>
       </c>
       <c r="N25">
-        <v>-5.116582570652067E-07</v>
+        <v>-5.116583039517797E-07</v>
       </c>
       <c r="O25">
-        <v>-0.001009445024154566</v>
+        <v>-0.001009445295467451</v>
       </c>
       <c r="P25">
-        <v>-0.001151205767589431</v>
+        <v>-0.001151206286777242</v>
       </c>
       <c r="Q25">
-        <v>-0.001187084084561438</v>
+        <v>-0.001187084619966936</v>
       </c>
       <c r="R25">
-        <v>-0.003746186853592147</v>
+        <v>-0.003746187444447093</v>
       </c>
       <c r="S25">
-        <v>-2.271545116914654E-09</v>
+        <v>-2.271545698684255E-09</v>
       </c>
       <c r="T25">
-        <v>-1.41027433692105E-06</v>
+        <v>-1.410274840941629E-06</v>
       </c>
       <c r="U25">
-        <v>-0.02499607198772791</v>
+        <v>-0.02499608154750245</v>
       </c>
     </row>
   </sheetData>

--- a/results/sterilization_APOS/data_uniquie_sterilization_APOS_recipe.xlsx
+++ b/results/sterilization_APOS/data_uniquie_sterilization_APOS_recipe.xlsx
@@ -702,67 +702,67 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.008734340859662135</v>
+        <v>0.009087395286057311</v>
       </c>
       <c r="B5">
-        <v>2.437372076945581</v>
+        <v>2.50057781588564</v>
       </c>
       <c r="C5">
-        <v>0.2346522487293826</v>
+        <v>0.2379473440490658</v>
       </c>
       <c r="D5">
-        <v>0.3035101841683719</v>
+        <v>0.3080765673779116</v>
       </c>
       <c r="E5">
-        <v>9.605164174128612</v>
+        <v>9.873350572086419</v>
       </c>
       <c r="F5">
-        <v>0.6626230428007887</v>
+        <v>0.6809396142813873</v>
       </c>
       <c r="G5">
-        <v>0.001700616576662166</v>
+        <v>0.001714719111400156</v>
       </c>
       <c r="H5">
-        <v>0.0003605777523559499</v>
+        <v>0.0003657754585907276</v>
       </c>
       <c r="I5">
-        <v>0.2072694299312911</v>
+        <v>0.2188727257343316</v>
       </c>
       <c r="J5">
-        <v>4.470495487797219</v>
+        <v>4.558789630725412</v>
       </c>
       <c r="K5">
-        <v>0.8930473286840976</v>
+        <v>0.8946878728002529</v>
       </c>
       <c r="L5">
-        <v>0.151781258755992</v>
+        <v>0.1758964613962921</v>
       </c>
       <c r="M5">
-        <v>0.02672101953752175</v>
+        <v>0.03036733923957058</v>
       </c>
       <c r="N5">
-        <v>1.19764290298063E-06</v>
+        <v>1.213029250876128E-06</v>
       </c>
       <c r="O5">
-        <v>0.003430794091493283</v>
+        <v>0.003554328265822569</v>
       </c>
       <c r="P5">
-        <v>0.004841472683371109</v>
+        <v>0.005099728611037729</v>
       </c>
       <c r="Q5">
-        <v>0.005099565004113177</v>
+        <v>0.005374929065784269</v>
       </c>
       <c r="R5">
-        <v>0.08932458025040016</v>
+        <v>0.08969889318774493</v>
       </c>
       <c r="S5">
-        <v>1.212536476017565E-08</v>
+        <v>1.264206657216298E-08</v>
       </c>
       <c r="T5">
-        <v>6.335527980714538E-06</v>
+        <v>6.531585194684563E-06</v>
       </c>
       <c r="U5">
-        <v>0.1691635913432827</v>
+        <v>0.1762652370855258</v>
       </c>
     </row>
     <row r="6" spans="1:21">
